--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Microalbuminuria (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Microalbuminuria (UPTO).xlsx
@@ -590,67 +590,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.64490404327557</v>
+        <v>21.52348258706451</v>
       </c>
       <c r="H2" t="n">
-        <v>10.61077142857143</v>
+        <v>10.20399999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>34.54649761904761</v>
+        <v>34.34400000000002</v>
       </c>
       <c r="J2" t="n">
-        <v>30.91102662792325</v>
+        <v>30.84405970149241</v>
       </c>
       <c r="K2" t="n">
-        <v>23.20128281987477</v>
+        <v>21.74399999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>37.88413554840145</v>
+        <v>37.78799999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>14.92211739886164</v>
+        <v>14.99516417910447</v>
       </c>
       <c r="N2" t="n">
-        <v>10.95142510220857</v>
+        <v>10.89999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>18.67954829520701</v>
+        <v>18.96399999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>6.570902059779163</v>
+        <v>6.539024875621874</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.196106959706954</v>
+        <v>3.128</v>
       </c>
       <c r="R2" t="n">
-        <v>10.23049395863765</v>
+        <v>10.17999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>2.694264913527592</v>
+        <v>2.607761194029842</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7009571428571425</v>
+        <v>0.7200000000000002</v>
       </c>
       <c r="U2" t="n">
-        <v>5.573454761904763</v>
+        <v>5.5</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8603311537550327</v>
+        <v>0.8533532338308452</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2.323804761904763</v>
+        <v>2.312000000000002</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1229252309879175</v>
+        <v>0.1205373134328357</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6093364117364111</v>
+        <v>0.5920000000000005</v>
       </c>
     </row>
     <row r="3">
@@ -691,49 +691,49 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8.564358208955197</v>
+        <v>9.200039800995018</v>
       </c>
       <c r="N3" t="n">
-        <v>3.927017027417027</v>
+        <v>4.256</v>
       </c>
       <c r="O3" t="n">
-        <v>14.23333333333337</v>
+        <v>15.248</v>
       </c>
       <c r="P3" t="n">
-        <v>7.716192371475944</v>
+        <v>8.09309452736318</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.535773544973543</v>
+        <v>3.935999999999998</v>
       </c>
       <c r="R3" t="n">
-        <v>12.42140000000001</v>
+        <v>12.816</v>
       </c>
       <c r="S3" t="n">
-        <v>5.915999999999988</v>
+        <v>6.164139303482574</v>
       </c>
       <c r="T3" t="n">
-        <v>3.412000000000001</v>
+        <v>3.691999999999998</v>
       </c>
       <c r="U3" t="n">
-        <v>8.894666666666676</v>
+        <v>9.192000000000004</v>
       </c>
       <c r="V3" t="n">
-        <v>3.376686567164171</v>
+        <v>3.49968159203979</v>
       </c>
       <c r="W3" t="n">
-        <v>1.496600000000001</v>
+        <v>1.604</v>
       </c>
       <c r="X3" t="n">
-        <v>5.45066666666666</v>
+        <v>5.580000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7795621890547246</v>
+        <v>0.8063283582089542</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1762829343425453</v>
+        <v>0.108</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.722326984126983</v>
+        <v>1.708</v>
       </c>
     </row>
     <row r="4">
@@ -774,49 +774,49 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>13.93770149253731</v>
+        <v>13.55544278606964</v>
       </c>
       <c r="N4" t="n">
-        <v>6.88908888888889</v>
+        <v>6.888000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>21.95577777777774</v>
+        <v>21.62400000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>11.59927694859039</v>
+        <v>11.32396019900497</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.914666666666655</v>
+        <v>6.735999999999998</v>
       </c>
       <c r="R4" t="n">
-        <v>17.05199999999999</v>
+        <v>16.656</v>
       </c>
       <c r="S4" t="n">
-        <v>8.504183526810381</v>
+        <v>8.191084577114419</v>
       </c>
       <c r="T4" t="n">
-        <v>5.161666666666661</v>
+        <v>4.963999999999997</v>
       </c>
       <c r="U4" t="n">
-        <v>11.73350000000001</v>
+        <v>11.484</v>
       </c>
       <c r="V4" t="n">
-        <v>4.626664842454391</v>
+        <v>4.503681592039792</v>
       </c>
       <c r="W4" t="n">
-        <v>2.734633333333335</v>
+        <v>2.615999999999998</v>
       </c>
       <c r="X4" t="n">
-        <v>6.677295238095241</v>
+        <v>6.584000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.016530245597409</v>
+        <v>0.997293532338308</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1921691679952987</v>
+        <v>0.316</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.9436</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5">
@@ -848,58 +848,58 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8.323919402092278</v>
+        <v>8.375880597014911</v>
       </c>
       <c r="K5" t="n">
-        <v>3.857654477004479</v>
+        <v>3.744</v>
       </c>
       <c r="L5" t="n">
-        <v>14.48206284467167</v>
+        <v>14.62399999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>7.649446766169146</v>
+        <v>7.51064676616915</v>
       </c>
       <c r="N5" t="n">
-        <v>4.050622029822031</v>
+        <v>3.968</v>
       </c>
       <c r="O5" t="n">
-        <v>12.30523068783068</v>
+        <v>12.08000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>6.302567164179107</v>
+        <v>6.231562189054722</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.185241269841267</v>
+        <v>3.151999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>10.01593333333334</v>
+        <v>9.983999999999995</v>
       </c>
       <c r="S5" t="n">
-        <v>4.640027086788266</v>
+        <v>4.630208955223867</v>
       </c>
       <c r="T5" t="n">
-        <v>2.464652380952382</v>
+        <v>2.448000000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>6.966847869674179</v>
+        <v>6.960000000000003</v>
       </c>
       <c r="V5" t="n">
-        <v>2.68777213930348</v>
+        <v>2.691701492537312</v>
       </c>
       <c r="W5" t="n">
-        <v>1.234103663003664</v>
+        <v>1.216000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>4.382466666666661</v>
+        <v>4.392000000000003</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6606605820105813</v>
+        <v>0.6604577114427851</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.02576928956938832</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.509637999037998</v>
+        <v>1.528</v>
       </c>
     </row>
     <row r="6">
@@ -922,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11.34722675511332</v>
+        <v>11.40051741293532</v>
       </c>
       <c r="H6" t="n">
-        <v>5.004000000000004</v>
+        <v>5.039999999999997</v>
       </c>
       <c r="I6" t="n">
-        <v>19.88273333333336</v>
+        <v>19.35200000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>19.33141218247384</v>
+        <v>19.97930348258706</v>
       </c>
       <c r="K6" t="n">
-        <v>11.04244295334295</v>
+        <v>11.78</v>
       </c>
       <c r="L6" t="n">
-        <v>29.43825714285713</v>
+        <v>29.07200000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>14.38070571927045</v>
+        <v>13.98684577114428</v>
       </c>
       <c r="N6" t="n">
-        <v>10.03992205492905</v>
+        <v>10.076</v>
       </c>
       <c r="O6" t="n">
-        <v>18.47484889885174</v>
+        <v>18.05199999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>8.622603971793643</v>
+        <v>9.064437810945266</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.77800054992021</v>
+        <v>6.228</v>
       </c>
       <c r="R6" t="n">
-        <v>11.58284665526163</v>
+        <v>12.156</v>
       </c>
       <c r="S6" t="n">
-        <v>5.375742517457684</v>
+        <v>5.404457711442785</v>
       </c>
       <c r="T6" t="n">
-        <v>3.264649888673418</v>
+        <v>3.291999999999998</v>
       </c>
       <c r="U6" t="n">
-        <v>7.736759990989399</v>
+        <v>7.752000000000004</v>
       </c>
       <c r="V6" t="n">
-        <v>2.642535781410398</v>
+        <v>2.54222885572138</v>
       </c>
       <c r="W6" t="n">
-        <v>1.060455772005772</v>
+        <v>0.96</v>
       </c>
       <c r="X6" t="n">
-        <v>4.221364114343576</v>
+        <v>4.151999999999997</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4859842217483996</v>
+        <v>0.4777910447761185</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.001619204564876343</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.235221193621192</v>
+        <v>1.188000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.14231957125233</v>
+        <v>21.27182089552231</v>
       </c>
       <c r="K7" t="n">
-        <v>11.77580048100048</v>
+        <v>12.116</v>
       </c>
       <c r="L7" t="n">
-        <v>35.66479183855361</v>
+        <v>34.56000000000003</v>
       </c>
       <c r="M7" t="n">
-        <v>30.57479042768922</v>
+        <v>30.50258706467646</v>
       </c>
       <c r="N7" t="n">
-        <v>22.37838556998554</v>
+        <v>22.11600000000002</v>
       </c>
       <c r="O7" t="n">
-        <v>38.21534363712995</v>
+        <v>38.16800000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>14.72827432308372</v>
+        <v>14.74360199004976</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.49825859325859</v>
+        <v>10.57200000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>18.41616830734625</v>
+        <v>18.58400000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>6.160137645107784</v>
+        <v>6.16041791044775</v>
       </c>
       <c r="T7" t="n">
-        <v>2.552857142857139</v>
+        <v>2.579999999999998</v>
       </c>
       <c r="U7" t="n">
-        <v>9.633731932773115</v>
+        <v>9.512000000000006</v>
       </c>
       <c r="V7" t="n">
-        <v>1.926412935323374</v>
+        <v>1.922447761194022</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2999999999999995</v>
+        <v>0.344</v>
       </c>
       <c r="X7" t="n">
-        <v>3.918533333333337</v>
+        <v>3.904000000000002</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2697479270315079</v>
+        <v>0.2694726368159191</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0008269230769230769</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9992174603174605</v>
+        <v>0.9639999999999997</v>
       </c>
     </row>
     <row r="8">
@@ -1106,49 +1106,49 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>63.06906796967532</v>
+        <v>63.11721393034818</v>
       </c>
       <c r="N8" t="n">
-        <v>45.19644444444436</v>
+        <v>45.496</v>
       </c>
       <c r="O8" t="n">
-        <v>79.47100529100527</v>
+        <v>79.51200000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>6.325194029850732</v>
+        <v>6.68224875621889</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.281333333333331</v>
+        <v>2.484</v>
       </c>
       <c r="R8" t="n">
-        <v>12.156</v>
+        <v>12.52</v>
       </c>
       <c r="S8" t="n">
-        <v>0.503011608623548</v>
+        <v>0.5814925373134315</v>
       </c>
       <c r="T8" t="n">
-        <v>0.09600000000000002</v>
+        <v>0.012</v>
       </c>
       <c r="U8" t="n">
-        <v>2.027333333333335</v>
+        <v>2.071999999999999</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04741066098081004</v>
+        <v>0.04704477611940278</v>
       </c>
       <c r="W8" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2607999999999995</v>
+        <v>0.2879999999999998</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002478812895230803</v>
+        <v>0.001970149253731342</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.06599999999999999</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="9">
@@ -1180,58 +1180,58 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>20.58557567129746</v>
+        <v>20.95812935323375</v>
       </c>
       <c r="K9" t="n">
-        <v>10.92387614237614</v>
+        <v>11.03999999999999</v>
       </c>
       <c r="L9" t="n">
-        <v>32.58881038961039</v>
+        <v>32.49200000000002</v>
       </c>
       <c r="M9" t="n">
-        <v>16.62565766406065</v>
+        <v>16.44817910447761</v>
       </c>
       <c r="N9" t="n">
-        <v>11.03532640692641</v>
+        <v>10.948</v>
       </c>
       <c r="O9" t="n">
-        <v>22.43244021164023</v>
+        <v>22.34399999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>11.02810206107643</v>
+        <v>10.94011940298507</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.657565645465644</v>
+        <v>7.503999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>14.16577672065375</v>
+        <v>13.98</v>
       </c>
       <c r="S9" t="n">
-        <v>6.650230140993523</v>
+        <v>6.81098507462686</v>
       </c>
       <c r="T9" t="n">
-        <v>4.335565312465313</v>
+        <v>4.416000000000002</v>
       </c>
       <c r="U9" t="n">
-        <v>8.985216284592601</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="V9" t="n">
-        <v>3.277761476500271</v>
+        <v>3.23414925373133</v>
       </c>
       <c r="W9" t="n">
-        <v>1.705730769230769</v>
+        <v>1.663999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>4.99739333999334</v>
+        <v>4.860000000000003</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6886614273509788</v>
+        <v>0.6652537313432831</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.02394989552499427</v>
+        <v>0.012</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.546624368224366</v>
+        <v>1.592</v>
       </c>
     </row>
     <row r="10">
@@ -1263,58 +1263,58 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>43.97462161631432</v>
+        <v>45.49353233830841</v>
       </c>
       <c r="K10" t="n">
-        <v>28.4281027635763</v>
+        <v>29.21200000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>62.27468628038631</v>
+        <v>63.56000000000004</v>
       </c>
       <c r="M10" t="n">
-        <v>21.78074709784397</v>
+        <v>21.77196019900482</v>
       </c>
       <c r="N10" t="n">
-        <v>14.51871428571431</v>
+        <v>14.53599999999999</v>
       </c>
       <c r="O10" t="n">
-        <v>30.12576507936511</v>
+        <v>30.08799999999998</v>
       </c>
       <c r="P10" t="n">
-        <v>1.931089194240438</v>
+        <v>1.913054726368158</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3932063492063502</v>
+        <v>0.2479999999999998</v>
       </c>
       <c r="R10" t="n">
-        <v>5.315999999999999</v>
+        <v>5.151999999999998</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1845169154228855</v>
+        <v>0.1842985074626865</v>
       </c>
       <c r="T10" t="n">
-        <v>8.333333333333333e-05</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9431928571428568</v>
+        <v>0.948</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01421812988007015</v>
+        <v>0.0166965174129353</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2274671717171714</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001802605457170864</v>
+        <v>0.001791044776119403</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0008269230769230769</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.002266666666666667</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="11">
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>27.71613850154753</v>
+        <v>27.64712437810931</v>
       </c>
       <c r="H11" t="n">
-        <v>14.72231666666666</v>
+        <v>14.572</v>
       </c>
       <c r="I11" t="n">
-        <v>41.78470238095244</v>
+        <v>41.84799999999998</v>
       </c>
       <c r="J11" t="n">
-        <v>32.96603033396477</v>
+        <v>33.3795820895521</v>
       </c>
       <c r="K11" t="n">
-        <v>25.3020975333576</v>
+        <v>25.67600000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>38.93781779948372</v>
+        <v>39.55199999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>12.58573880883443</v>
+        <v>12.21882587064675</v>
       </c>
       <c r="N11" t="n">
-        <v>6.987210457516333</v>
+        <v>7.023999999999997</v>
       </c>
       <c r="O11" t="n">
-        <v>17.92425069992304</v>
+        <v>17.11600000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>3.954601687091229</v>
+        <v>4.002029850746258</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9579683760683763</v>
+        <v>1.072</v>
       </c>
       <c r="R11" t="n">
-        <v>7.858423809523803</v>
+        <v>7.780000000000004</v>
       </c>
       <c r="S11" t="n">
-        <v>1.138925373134328</v>
+        <v>1.183263681592039</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
       <c r="U11" t="n">
-        <v>3.351266666666665</v>
+        <v>3.372000000000002</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2963223880597002</v>
+        <v>0.3026865671641774</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.02227619047619</v>
+        <v>1.08</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03152525467898597</v>
+        <v>0.03381094527363181</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2209829287270461</v>
+        <v>0.2039999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>16.19385074626866</v>
+        <v>16.23337313432836</v>
       </c>
       <c r="E12" t="n">
-        <v>8.991999999999999</v>
+        <v>8.863999999999997</v>
       </c>
       <c r="F12" t="n">
-        <v>26.13266666666671</v>
+        <v>25.808</v>
       </c>
       <c r="G12" t="n">
-        <v>25.43164733188308</v>
+        <v>25.84208955223874</v>
       </c>
       <c r="H12" t="n">
-        <v>15.23085238095238</v>
+        <v>17.14399999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>33.08893650793649</v>
+        <v>33.87199999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>14.24760262461144</v>
+        <v>15.53940298507461</v>
       </c>
       <c r="K12" t="n">
-        <v>10.44982322233552</v>
+        <v>11.812</v>
       </c>
       <c r="L12" t="n">
-        <v>18.42798955331734</v>
+        <v>19.37600000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>8.346023082320631</v>
+        <v>8.626089552238803</v>
       </c>
       <c r="N12" t="n">
-        <v>6.03199712754205</v>
+        <v>5.775999999999997</v>
       </c>
       <c r="O12" t="n">
-        <v>11.3718235589022</v>
+        <v>12.08399999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>5.26115402687448</v>
+        <v>4.637213930348249</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.530664504353574</v>
+        <v>2.208000000000001</v>
       </c>
       <c r="R12" t="n">
-        <v>8.138075837174522</v>
+        <v>7.472000000000004</v>
       </c>
       <c r="S12" t="n">
-        <v>2.477347563768444</v>
+        <v>2.314169154228842</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8165541125541118</v>
+        <v>0.7120000000000001</v>
       </c>
       <c r="U12" t="n">
-        <v>4.41526666666667</v>
+        <v>4.359999999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9868016583747915</v>
+        <v>0.9350248756218896</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07193333333333336</v>
+        <v>0.036</v>
       </c>
       <c r="X12" t="n">
-        <v>2.218666666666663</v>
+        <v>2.124000000000002</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1710616915422883</v>
+        <v>0.1725970149253731</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.6125291005290996</v>
+        <v>0.5840000000000003</v>
       </c>
     </row>
     <row r="13">
@@ -1503,61 +1503,61 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>60.78576679110449</v>
+        <v>60.51172139303471</v>
       </c>
       <c r="H13" t="n">
-        <v>42.92606900664697</v>
+        <v>42.20000000000002</v>
       </c>
       <c r="I13" t="n">
-        <v>76.66771741869243</v>
+        <v>75.63599999999994</v>
       </c>
       <c r="J13" t="n">
-        <v>11.61568549316905</v>
+        <v>11.63510447761193</v>
       </c>
       <c r="K13" t="n">
-        <v>5.586499999999996</v>
+        <v>5.656000000000002</v>
       </c>
       <c r="L13" t="n">
-        <v>18.63470555555555</v>
+        <v>18.764</v>
       </c>
       <c r="M13" t="n">
-        <v>1.629003860567293</v>
+        <v>1.728278606965173</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1793391275318723</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>4.702047619047618</v>
+        <v>4.944</v>
       </c>
       <c r="P13" t="n">
-        <v>0.215876485663953</v>
+        <v>0.2490149253731336</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.031446540880503e-05</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.070397596847597</v>
+        <v>1.152000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02710181433329506</v>
+        <v>0.04328358208955212</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3323658844079894</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>0.003280431856569355</v>
+        <v>0.004517412935323379</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.024778858592388</v>
+        <v>0.02</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0001192435590721399</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>33.75147119258974</v>
+        <v>33.99178109452731</v>
       </c>
       <c r="H14" t="n">
-        <v>18.8050492063492</v>
+        <v>18.74400000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>49.60524999999997</v>
+        <v>49.62</v>
       </c>
       <c r="J14" t="n">
-        <v>32.84660203606036</v>
+        <v>32.57309452736307</v>
       </c>
       <c r="K14" t="n">
-        <v>25.28136572507873</v>
+        <v>26.64799999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>38.91931779948371</v>
+        <v>38.59600000000002</v>
       </c>
       <c r="M14" t="n">
-        <v>8.280006161113615</v>
+        <v>8.29663681592039</v>
       </c>
       <c r="N14" t="n">
-        <v>3.466653805453808</v>
+        <v>3.644000000000003</v>
       </c>
       <c r="O14" t="n">
-        <v>13.72559682539683</v>
+        <v>13.728</v>
       </c>
       <c r="P14" t="n">
-        <v>1.750943047263368</v>
+        <v>1.911343283582089</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1502668386819327</v>
+        <v>0.2399999999999998</v>
       </c>
       <c r="R14" t="n">
-        <v>4.45278333333334</v>
+        <v>4.631999999999997</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3884903577351326</v>
+        <v>0.444059701492536</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.478861111111109</v>
+        <v>1.615999999999999</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06322797368306576</v>
+        <v>0.0846965174129351</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.4618883965707494</v>
+        <v>0.5320000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.002740867416786655</v>
+        <v>0.005452736318407959</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="15">
@@ -1669,67 +1669,67 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>8.307115970412482</v>
+        <v>8.219383084577112</v>
       </c>
       <c r="H15" t="n">
-        <v>4.099840476190477</v>
+        <v>3.888000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>14.57633333333334</v>
+        <v>14.456</v>
       </c>
       <c r="J15" t="n">
-        <v>7.833821179815204</v>
+        <v>7.641472636815914</v>
       </c>
       <c r="K15" t="n">
-        <v>3.975854829484241</v>
+        <v>3.923999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>12.58361825396826</v>
+        <v>12.29999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>6.434652043666376</v>
+        <v>6.362547263681588</v>
       </c>
       <c r="N15" t="n">
-        <v>3.374152047952045</v>
+        <v>3.344000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>9.840525925925904</v>
+        <v>9.844000000000008</v>
       </c>
       <c r="P15" t="n">
-        <v>5.092183421516745</v>
+        <v>5.090467661691528</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.56732674362674</v>
+        <v>2.512</v>
       </c>
       <c r="R15" t="n">
-        <v>7.854171262071261</v>
+        <v>7.847999999999997</v>
       </c>
       <c r="S15" t="n">
-        <v>3.881807002505499</v>
+        <v>3.797094527363175</v>
       </c>
       <c r="T15" t="n">
-        <v>1.993525180375181</v>
+        <v>1.887999999999999</v>
       </c>
       <c r="U15" t="n">
-        <v>5.971837012987015</v>
+        <v>5.932000000000001</v>
       </c>
       <c r="V15" t="n">
-        <v>2.279951703782662</v>
+        <v>2.198348258706457</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01912909035409</v>
+        <v>1.004</v>
       </c>
       <c r="X15" t="n">
-        <v>3.792637178749072</v>
+        <v>3.792000000000002</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5325848574587373</v>
+        <v>0.5272636815920383</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.002292536338208117</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.188081000480999</v>
+        <v>1.208000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1752,67 +1752,67 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11.44408579325594</v>
+        <v>11.49052736318407</v>
       </c>
       <c r="H16" t="n">
-        <v>5.152000000000003</v>
+        <v>5.179999999999998</v>
       </c>
       <c r="I16" t="n">
-        <v>20.33213333333336</v>
+        <v>19.65200000000002</v>
       </c>
       <c r="J16" t="n">
-        <v>19.41342975598196</v>
+        <v>20.03878606965171</v>
       </c>
       <c r="K16" t="n">
-        <v>11.08455021645022</v>
+        <v>11.864</v>
       </c>
       <c r="L16" t="n">
-        <v>29.42659047619046</v>
+        <v>29.26800000000001</v>
       </c>
       <c r="M16" t="n">
-        <v>14.38070571927045</v>
+        <v>13.96053731343283</v>
       </c>
       <c r="N16" t="n">
-        <v>10.01852205492904</v>
+        <v>10.024</v>
       </c>
       <c r="O16" t="n">
-        <v>18.52241990562275</v>
+        <v>17.96799999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>8.622603971793643</v>
+        <v>9.072298507462682</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.732646115465776</v>
+        <v>6.236000000000001</v>
       </c>
       <c r="R16" t="n">
-        <v>11.58617998859497</v>
+        <v>12.26399999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>5.365079710281446</v>
+        <v>5.387363184079598</v>
       </c>
       <c r="T16" t="n">
-        <v>3.296564174387703</v>
+        <v>3.295999999999998</v>
       </c>
       <c r="U16" t="n">
-        <v>7.738379038608446</v>
+        <v>7.708000000000006</v>
       </c>
       <c r="V16" t="n">
-        <v>2.638170394061429</v>
+        <v>2.524457711442774</v>
       </c>
       <c r="W16" t="n">
-        <v>1.032696031746032</v>
+        <v>0.9640000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>4.204197447676908</v>
+        <v>4.123999999999998</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4753883676853812</v>
+        <v>0.4781492537313424</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.001619204564876343</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.196218518518517</v>
+        <v>1.164000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>16.01103482587063</v>
+        <v>16.2299303482587</v>
       </c>
       <c r="E17" t="n">
-        <v>8.028</v>
+        <v>8.192</v>
       </c>
       <c r="F17" t="n">
-        <v>25.78933333333339</v>
+        <v>26.01200000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>25.34298508754916</v>
+        <v>26.11172139303472</v>
       </c>
       <c r="H17" t="n">
-        <v>15.91459523809524</v>
+        <v>16.64399999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>33.23160317460316</v>
+        <v>34.35199999999998</v>
       </c>
       <c r="J17" t="n">
-        <v>14.29340733123704</v>
+        <v>15.60445771144276</v>
       </c>
       <c r="K17" t="n">
-        <v>10.59386834018064</v>
+        <v>11.78</v>
       </c>
       <c r="L17" t="n">
-        <v>18.42798955331734</v>
+        <v>19.324</v>
       </c>
       <c r="M17" t="n">
-        <v>8.235723514729859</v>
+        <v>8.640835820895521</v>
       </c>
       <c r="N17" t="n">
-        <v>5.990025543570465</v>
+        <v>5.608</v>
       </c>
       <c r="O17" t="n">
-        <v>11.40341800334665</v>
+        <v>12.06799999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>5.324972864061097</v>
+        <v>4.56382089552238</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.612664504353573</v>
+        <v>2.192000000000002</v>
       </c>
       <c r="R17" t="n">
-        <v>8.078498059396745</v>
+        <v>7.18</v>
       </c>
       <c r="S17" t="n">
-        <v>2.402676474768997</v>
+        <v>2.243283582089538</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8021904761904751</v>
+        <v>0.7120000000000002</v>
       </c>
       <c r="U17" t="n">
-        <v>4.441266666666666</v>
+        <v>4.268000000000001</v>
       </c>
       <c r="V17" t="n">
-        <v>1.019010613598671</v>
+        <v>0.9157810945273621</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1363999999999998</v>
+        <v>0.116</v>
       </c>
       <c r="X17" t="n">
-        <v>2.221833333333331</v>
+        <v>2.064000000000001</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1698548922056382</v>
+        <v>0.1481990049751244</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.6911515151515137</v>
+        <v>0.5760000000000004</v>
       </c>
     </row>
     <row r="18">
@@ -1936,49 +1936,49 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>13.99826865671642</v>
+        <v>13.56099502487561</v>
       </c>
       <c r="N18" t="n">
-        <v>7.251222222222228</v>
+        <v>6.924000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>21.93977777777774</v>
+        <v>21.6</v>
       </c>
       <c r="P18" t="n">
-        <v>11.60403316749587</v>
+        <v>11.33550248756218</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.997333333333325</v>
+        <v>6.763999999999998</v>
       </c>
       <c r="R18" t="n">
-        <v>17.02199999999998</v>
+        <v>16.684</v>
       </c>
       <c r="S18" t="n">
-        <v>8.504183526810381</v>
+        <v>8.19526368159203</v>
       </c>
       <c r="T18" t="n">
-        <v>5.254399999999995</v>
+        <v>4.975999999999997</v>
       </c>
       <c r="U18" t="n">
-        <v>11.72950000000001</v>
+        <v>11.476</v>
       </c>
       <c r="V18" t="n">
-        <v>4.621809121061355</v>
+        <v>4.508318407960188</v>
       </c>
       <c r="W18" t="n">
-        <v>2.767033333333334</v>
+        <v>2.615999999999998</v>
       </c>
       <c r="X18" t="n">
-        <v>6.717009523809525</v>
+        <v>6.600000000000002</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.9967936507936499</v>
+        <v>0.9960597014925366</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.184148869554863</v>
+        <v>0.312</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.957685714285715</v>
+        <v>1.976</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>27.69802985074624</v>
+        <v>27.71966169154227</v>
       </c>
       <c r="E19" t="n">
-        <v>16.16399999999999</v>
+        <v>16.17199999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>41.21600000000007</v>
+        <v>41.12799999999996</v>
       </c>
       <c r="G19" t="n">
-        <v>33.10666974390656</v>
+        <v>33.54326368159192</v>
       </c>
       <c r="H19" t="n">
-        <v>25.55414535839977</v>
+        <v>26.68000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>39.04921390292715</v>
+        <v>39.64799999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>12.85285183239972</v>
+        <v>12.12256716417911</v>
       </c>
       <c r="K19" t="n">
-        <v>6.449515390143628</v>
+        <v>6.972</v>
       </c>
       <c r="L19" t="n">
-        <v>17.95283088420867</v>
+        <v>16.96399999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>3.883095546079122</v>
+        <v>3.965791044776111</v>
       </c>
       <c r="N19" t="n">
-        <v>1.18425849684085</v>
+        <v>1.224000000000001</v>
       </c>
       <c r="O19" t="n">
-        <v>7.753066315688666</v>
+        <v>7.996000000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>1.204923902852259</v>
+        <v>1.273970149253729</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.08525343915343908</v>
+        <v>0.1280000000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>3.456481746031745</v>
+        <v>3.472000000000002</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3709421306167567</v>
+        <v>0.3969353233830837</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0003076923076923077</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.211169047619046</v>
+        <v>1.532</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1024645537436582</v>
+        <v>0.1120597014925373</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5159944888444892</v>
+        <v>0.5760000000000003</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.008634339844787594</v>
+        <v>0.008298507462686565</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.2238754208754205</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>11.20259720445391</v>
+        <v>11.00999004975123</v>
       </c>
       <c r="E20" t="n">
-        <v>5.132999999999999</v>
+        <v>5.412000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>18.60082380952383</v>
+        <v>18.23199999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>19.15910376161519</v>
+        <v>19.05914427860695</v>
       </c>
       <c r="H20" t="n">
-        <v>11.01651767676768</v>
+        <v>11.176</v>
       </c>
       <c r="I20" t="n">
-        <v>27.12916666666666</v>
+        <v>26.39199999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>14.24685675080586</v>
+        <v>13.96270646766167</v>
       </c>
       <c r="K20" t="n">
-        <v>9.944687724500017</v>
+        <v>9.464000000000006</v>
       </c>
       <c r="L20" t="n">
-        <v>18.42798955331734</v>
+        <v>18.35199999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>8.498116321254166</v>
+        <v>9.205452736318406</v>
       </c>
       <c r="N20" t="n">
-        <v>6.13505936900429</v>
+        <v>6.572000000000002</v>
       </c>
       <c r="O20" t="n">
-        <v>11.39590689223554</v>
+        <v>11.944</v>
       </c>
       <c r="P20" t="n">
-        <v>5.721514503662635</v>
+        <v>6.000099502487553</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.641914074951684</v>
+        <v>3.708000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>8.264147410046094</v>
+        <v>8.395999999999994</v>
       </c>
       <c r="S20" t="n">
-        <v>3.726951889901132</v>
+        <v>3.674288557213924</v>
       </c>
       <c r="T20" t="n">
-        <v>1.867968326118327</v>
+        <v>1.928</v>
       </c>
       <c r="U20" t="n">
-        <v>5.586493372459025</v>
+        <v>5.596000000000001</v>
       </c>
       <c r="V20" t="n">
-        <v>1.71858982073758</v>
+        <v>1.695144278606965</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6040922077922084</v>
+        <v>0.5880000000000005</v>
       </c>
       <c r="X20" t="n">
-        <v>3.144850361867232</v>
+        <v>3.004</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3265737384506031</v>
+        <v>0.3249552238805962</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.001619204564876343</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.9943543345543344</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="21">
@@ -2167,67 +2167,67 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>13.41382051646529</v>
+        <v>13.35753233830846</v>
       </c>
       <c r="H21" t="n">
-        <v>6.780419047619052</v>
+        <v>6.223999999999998</v>
       </c>
       <c r="I21" t="n">
-        <v>22.27826666666666</v>
+        <v>22.45599999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>11.38714607912817</v>
+        <v>11.68380099502486</v>
       </c>
       <c r="K21" t="n">
-        <v>6.5839856239621</v>
+        <v>6.572000000000002</v>
       </c>
       <c r="L21" t="n">
-        <v>16.91919047619045</v>
+        <v>16.95999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>9.562006179041855</v>
+        <v>8.94746268656716</v>
       </c>
       <c r="N21" t="n">
-        <v>5.928337607502804</v>
+        <v>5.511999999999996</v>
       </c>
       <c r="O21" t="n">
-        <v>13.49626766326956</v>
+        <v>12.98</v>
       </c>
       <c r="P21" t="n">
-        <v>6.949484147961383</v>
+        <v>6.715243781094523</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.402398952705361</v>
+        <v>4.332000000000002</v>
       </c>
       <c r="R21" t="n">
-        <v>9.23523486729129</v>
+        <v>9.000000000000002</v>
       </c>
       <c r="S21" t="n">
-        <v>4.512726887040556</v>
+        <v>4.623164179104461</v>
       </c>
       <c r="T21" t="n">
-        <v>2.722433904657435</v>
+        <v>2.799999999999999</v>
       </c>
       <c r="U21" t="n">
-        <v>6.549823687423686</v>
+        <v>6.636000000000001</v>
       </c>
       <c r="V21" t="n">
-        <v>2.46508807746978</v>
+        <v>2.491064676616899</v>
       </c>
       <c r="W21" t="n">
-        <v>1.156585317460318</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="X21" t="n">
-        <v>3.908621044882939</v>
+        <v>4.008</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.5340866282142394</v>
+        <v>0.5549253731343282</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.002292536338208117</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.190914333814332</v>
+        <v>1.212000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -2259,58 +2259,58 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>61.084501865647</v>
+        <v>62.51832835820889</v>
       </c>
       <c r="K22" t="n">
-        <v>43.09110211966682</v>
+        <v>43.92800000000003</v>
       </c>
       <c r="L22" t="n">
-        <v>76.40035644928686</v>
+        <v>77.63599999999998</v>
       </c>
       <c r="M22" t="n">
-        <v>6.511033996683233</v>
+        <v>6.59976119402983</v>
       </c>
       <c r="N22" t="n">
-        <v>2.25075555555555</v>
+        <v>2.340000000000002</v>
       </c>
       <c r="O22" t="n">
-        <v>12.72402222222221</v>
+        <v>12.916</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5555917186553999</v>
+        <v>0.5784278606965166</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02304656084656085</v>
+        <v>0.008</v>
       </c>
       <c r="R22" t="n">
-        <v>1.953133333333335</v>
+        <v>1.991999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05954989913348117</v>
+        <v>0.05580099502487552</v>
       </c>
       <c r="T22" t="n">
-        <v>8.333333333333333e-05</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.4305701409701405</v>
+        <v>0.4399999999999997</v>
       </c>
       <c r="V22" t="n">
-        <v>0.008609090635432158</v>
+        <v>0.004517412935323363</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.07708278943278947</v>
+        <v>0.028</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0006034489751785623</v>
+        <v>0.0003383084577114422</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.000466046511627907</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.005333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.136567164179101</v>
+        <v>5.140875621890537</v>
       </c>
       <c r="E23" t="n">
-        <v>1.980000000000001</v>
+        <v>1.712000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>9.099999999999989</v>
+        <v>9.316000000000004</v>
       </c>
       <c r="G23" t="n">
-        <v>8.124069746505558</v>
+        <v>8.165313432835807</v>
       </c>
       <c r="H23" t="n">
-        <v>3.686830158730155</v>
+        <v>3.931999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>12.95573492063493</v>
+        <v>12.90400000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>7.787743228302914</v>
+        <v>7.100895522388052</v>
       </c>
       <c r="K23" t="n">
-        <v>3.79053192145545</v>
+        <v>3.619999999999998</v>
       </c>
       <c r="L23" t="n">
-        <v>12.44749360902257</v>
+        <v>11.124</v>
       </c>
       <c r="M23" t="n">
-        <v>6.26258834794282</v>
+        <v>5.774786069651732</v>
       </c>
       <c r="N23" t="n">
-        <v>3.133411914011913</v>
+        <v>3.048</v>
       </c>
       <c r="O23" t="n">
-        <v>9.554713305213305</v>
+        <v>8.832000000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>4.959620195395261</v>
+        <v>4.632358208955217</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.655180245680247</v>
+        <v>2.615999999999998</v>
       </c>
       <c r="R23" t="n">
-        <v>7.572371675400624</v>
+        <v>7.023999999999994</v>
       </c>
       <c r="S23" t="n">
-        <v>3.636668086694938</v>
+        <v>3.410149253731331</v>
       </c>
       <c r="T23" t="n">
-        <v>1.805584632034631</v>
+        <v>1.656</v>
       </c>
       <c r="U23" t="n">
-        <v>5.500843372459025</v>
+        <v>5.324</v>
       </c>
       <c r="V23" t="n">
-        <v>2.037985185185182</v>
+        <v>1.967004975124376</v>
       </c>
       <c r="W23" t="n">
-        <v>0.8357970418470412</v>
+        <v>0.76</v>
       </c>
       <c r="X23" t="n">
-        <v>3.486166405464161</v>
+        <v>3.515999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.4881415986445825</v>
+        <v>0.5003383084577102</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.001928899974571753</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.138407599807599</v>
+        <v>1.156000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -2416,67 +2416,67 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>11.41028148148148</v>
+        <v>11.42714427860695</v>
       </c>
       <c r="H24" t="n">
-        <v>5.136000000000004</v>
+        <v>5.159999999999997</v>
       </c>
       <c r="I24" t="n">
-        <v>20.07280000000003</v>
+        <v>19.37200000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>19.41342975598196</v>
+        <v>19.9920199004975</v>
       </c>
       <c r="K24" t="n">
-        <v>11.08588354978356</v>
+        <v>11.944</v>
       </c>
       <c r="L24" t="n">
-        <v>29.42659047619046</v>
+        <v>29.14800000000002</v>
       </c>
       <c r="M24" t="n">
-        <v>14.38070571927045</v>
+        <v>13.99357213930348</v>
       </c>
       <c r="N24" t="n">
-        <v>10.0240776104846</v>
+        <v>10.064</v>
       </c>
       <c r="O24" t="n">
-        <v>18.52241990562275</v>
+        <v>17.98799999999999</v>
       </c>
       <c r="P24" t="n">
-        <v>8.622603971793643</v>
+        <v>9.078169154228851</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.727773099592761</v>
+        <v>6.256</v>
       </c>
       <c r="R24" t="n">
-        <v>11.58617998859497</v>
+        <v>12.24399999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>5.366612048589903</v>
+        <v>5.397114427860694</v>
       </c>
       <c r="T24" t="n">
-        <v>3.298564174387703</v>
+        <v>3.315999999999998</v>
       </c>
       <c r="U24" t="n">
-        <v>7.738379038608446</v>
+        <v>7.728000000000004</v>
       </c>
       <c r="V24" t="n">
-        <v>2.627868569849157</v>
+        <v>2.536796019900485</v>
       </c>
       <c r="W24" t="n">
-        <v>1.035096031746032</v>
+        <v>0.9840000000000003</v>
       </c>
       <c r="X24" t="n">
-        <v>4.157410512389972</v>
+        <v>4.143999999999997</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.4763336413172222</v>
+        <v>0.4794427860696509</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.001619204564876343</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.190885185185184</v>
+        <v>1.184000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.00116229219463</v>
+        <v>10.84861691542289</v>
       </c>
       <c r="K25" t="n">
-        <v>5.202905242905251</v>
+        <v>5.163999999999995</v>
       </c>
       <c r="L25" t="n">
-        <v>18.60293394383395</v>
+        <v>18.25200000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>19.00962530206108</v>
+        <v>18.85430845771143</v>
       </c>
       <c r="N25" t="n">
-        <v>11.09103650793651</v>
+        <v>10.912</v>
       </c>
       <c r="O25" t="n">
-        <v>27.1951111111111</v>
+        <v>26.88799999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>13.54297232584511</v>
+        <v>13.38776119402984</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.314112073112076</v>
+        <v>9.291999999999994</v>
       </c>
       <c r="R25" t="n">
-        <v>17.87991598189393</v>
+        <v>17.41199999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>8.337060508718665</v>
+        <v>8.408199004975115</v>
       </c>
       <c r="T25" t="n">
-        <v>5.914053968253967</v>
+        <v>5.995999999999999</v>
       </c>
       <c r="U25" t="n">
-        <v>10.99016914115296</v>
+        <v>11.024</v>
       </c>
       <c r="V25" t="n">
-        <v>4.008022594311345</v>
+        <v>4.018925373134316</v>
       </c>
       <c r="W25" t="n">
-        <v>2.21329734154734</v>
+        <v>2.232000000000002</v>
       </c>
       <c r="X25" t="n">
-        <v>5.888633773579361</v>
+        <v>6.155999999999994</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.7772152215114891</v>
+        <v>0.7590248756218885</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.09503097431804911</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.619850213729623</v>
+        <v>1.599999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -2582,67 +2582,67 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>13.42475583984837</v>
+        <v>12.87311442786069</v>
       </c>
       <c r="H26" t="n">
-        <v>6.554383333333331</v>
+        <v>6.284000000000004</v>
       </c>
       <c r="I26" t="n">
-        <v>22.87733333333334</v>
+        <v>22.124</v>
       </c>
       <c r="J26" t="n">
-        <v>11.50608958382689</v>
+        <v>12.03687562189054</v>
       </c>
       <c r="K26" t="n">
-        <v>6.653011686788161</v>
+        <v>6.828000000000002</v>
       </c>
       <c r="L26" t="n">
-        <v>17.11214761904762</v>
+        <v>17.90799999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>9.601205864823473</v>
+        <v>9.305412935323369</v>
       </c>
       <c r="N26" t="n">
-        <v>6.031902387167582</v>
+        <v>5.907999999999999</v>
       </c>
       <c r="O26" t="n">
-        <v>13.50838194898385</v>
+        <v>13.256</v>
       </c>
       <c r="P26" t="n">
-        <v>7.027748915035107</v>
+        <v>6.945950248756211</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.423683579155622</v>
+        <v>4.531999999999997</v>
       </c>
       <c r="R26" t="n">
-        <v>9.226401533957956</v>
+        <v>9.427999999999995</v>
       </c>
       <c r="S26" t="n">
-        <v>4.524640084401515</v>
+        <v>4.744577114427846</v>
       </c>
       <c r="T26" t="n">
-        <v>2.752272793546323</v>
+        <v>2.988000000000001</v>
       </c>
       <c r="U26" t="n">
-        <v>6.531704206904206</v>
+        <v>6.507999999999998</v>
       </c>
       <c r="V26" t="n">
-        <v>2.478787023217234</v>
+        <v>2.627840796019892</v>
       </c>
       <c r="W26" t="n">
-        <v>1.106618650793652</v>
+        <v>1.216000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>3.923713902025796</v>
+        <v>4.219999999999998</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.550926571355675</v>
+        <v>0.5659303482587057</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.002462233307905086</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.290112054612055</v>
+        <v>1.328</v>
       </c>
     </row>
     <row r="27">
@@ -2656,70 +2656,70 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>60.82029850746261</v>
+        <v>60.44859701492528</v>
       </c>
       <c r="E27" t="n">
-        <v>44.96</v>
+        <v>43.52400000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>76.90269841269843</v>
+        <v>76.78</v>
       </c>
       <c r="G27" t="n">
-        <v>11.56496716417909</v>
+        <v>11.67906467661691</v>
       </c>
       <c r="H27" t="n">
-        <v>5.629533333333341</v>
+        <v>5.843999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>18.08700000000001</v>
+        <v>18.328</v>
       </c>
       <c r="J27" t="n">
-        <v>1.905005575298112</v>
+        <v>1.806149253731341</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2838463684463686</v>
+        <v>0.2439999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>4.540419047619045</v>
+        <v>4.511999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4064280154892084</v>
+        <v>0.2880199004975117</v>
       </c>
       <c r="N27" t="n">
-        <v>0.008860949391929784</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.571534106634107</v>
+        <v>1.212</v>
       </c>
       <c r="P27" t="n">
-        <v>0.08849845188969399</v>
+        <v>0.04147263681592026</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.031446540880503e-05</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3558855153618311</v>
+        <v>0.26</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01604225357750493</v>
+        <v>0.007582089552238784</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1179667517209312</v>
+        <v>0.05199999999999999</v>
       </c>
       <c r="V27" t="n">
-        <v>0.003070938199314504</v>
+        <v>0.0009950248756218879</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.003338310251839664</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.662125893288162e-05</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -2757,58 +2757,58 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>38.33972158149561</v>
+        <v>38.35908457711438</v>
       </c>
       <c r="K28" t="n">
-        <v>23.20498359788359</v>
+        <v>23.10400000000001</v>
       </c>
       <c r="L28" t="n">
-        <v>56.01385818429937</v>
+        <v>56.74000000000005</v>
       </c>
       <c r="M28" t="n">
-        <v>20.97802592304124</v>
+        <v>21.798606965174</v>
       </c>
       <c r="N28" t="n">
-        <v>16.49508603984022</v>
+        <v>17.716</v>
       </c>
       <c r="O28" t="n">
-        <v>25.48921607499629</v>
+        <v>26.04399999999998</v>
       </c>
       <c r="P28" t="n">
-        <v>10.18072942285229</v>
+        <v>10.07631840796019</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.770990675990682</v>
+        <v>5.739999999999998</v>
       </c>
       <c r="R28" t="n">
-        <v>14.15549071776774</v>
+        <v>14.136</v>
       </c>
       <c r="S28" t="n">
-        <v>4.037248756218895</v>
+        <v>4.173810945273623</v>
       </c>
       <c r="T28" t="n">
-        <v>1.373800000000001</v>
+        <v>1.42</v>
       </c>
       <c r="U28" t="n">
-        <v>7.25414516594517</v>
+        <v>7.247999999999993</v>
       </c>
       <c r="V28" t="n">
-        <v>1.368126423438362</v>
+        <v>1.385194029850744</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1959999999999996</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="X28" t="n">
-        <v>3.075633333333331</v>
+        <v>3.168</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.1839409618573796</v>
+        <v>0.1895920398009947</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.004599379844961241</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.6457857142857132</v>
+        <v>0.6440000000000006</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.769521061359853</v>
+        <v>8.15263681592039</v>
       </c>
       <c r="E29" t="n">
-        <v>4.221333333333331</v>
+        <v>3.791999999999998</v>
       </c>
       <c r="F29" t="n">
-        <v>14.45266666666667</v>
+        <v>13.424</v>
       </c>
       <c r="G29" t="n">
-        <v>7.852339856274184</v>
+        <v>7.916139303482575</v>
       </c>
       <c r="H29" t="n">
-        <v>4.276833333333334</v>
+        <v>4.279999999999998</v>
       </c>
       <c r="I29" t="n">
-        <v>12.96526825396826</v>
+        <v>13.12799999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>6.972779829650713</v>
+        <v>6.733492537313424</v>
       </c>
       <c r="K29" t="n">
-        <v>3.705347089947088</v>
+        <v>3.883999999999998</v>
       </c>
       <c r="L29" t="n">
-        <v>10.4768735805646</v>
+        <v>10.112</v>
       </c>
       <c r="M29" t="n">
-        <v>5.56880760662792</v>
+        <v>5.446129353233813</v>
       </c>
       <c r="N29" t="n">
-        <v>3.033539763939765</v>
+        <v>3.076000000000001</v>
       </c>
       <c r="O29" t="n">
-        <v>8.821171828360837</v>
+        <v>8.279999999999996</v>
       </c>
       <c r="P29" t="n">
-        <v>4.391347403703326</v>
+        <v>4.325253731343282</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.448972914122916</v>
+        <v>2.491999999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>6.58024453881172</v>
+        <v>6.479999999999998</v>
       </c>
       <c r="S29" t="n">
-        <v>3.275783261617776</v>
+        <v>3.211880597014916</v>
       </c>
       <c r="T29" t="n">
-        <v>1.6246443001443</v>
+        <v>1.584</v>
       </c>
       <c r="U29" t="n">
-        <v>5.110037322300031</v>
+        <v>4.972000000000001</v>
       </c>
       <c r="V29" t="n">
-        <v>1.867828079659422</v>
+        <v>1.91126368159204</v>
       </c>
       <c r="W29" t="n">
-        <v>0.7940811688311676</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="X29" t="n">
-        <v>3.159715459385815</v>
+        <v>3.288</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.4217315931166668</v>
+        <v>0.4174328358208941</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.002292536338208117</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.016792833092833</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="30">
@@ -2914,67 +2914,67 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>29.04874912450727</v>
+        <v>28.87699502487556</v>
       </c>
       <c r="H30" t="n">
-        <v>16.57121904761906</v>
+        <v>16.284</v>
       </c>
       <c r="I30" t="n">
-        <v>43.1492603174603</v>
+        <v>43.412</v>
       </c>
       <c r="J30" t="n">
-        <v>20.68721106328402</v>
+        <v>19.76983084577114</v>
       </c>
       <c r="K30" t="n">
-        <v>14.90965921012302</v>
+        <v>14.208</v>
       </c>
       <c r="L30" t="n">
-        <v>25.3736844944985</v>
+        <v>24.796</v>
       </c>
       <c r="M30" t="n">
-        <v>11.00436795862948</v>
+        <v>11.84702487562189</v>
       </c>
       <c r="N30" t="n">
-        <v>7.770162919618415</v>
+        <v>8.395999999999994</v>
       </c>
       <c r="O30" t="n">
-        <v>14.21611903252278</v>
+        <v>15.09600000000001</v>
       </c>
       <c r="P30" t="n">
-        <v>6.856788242797814</v>
+        <v>6.6953631840796</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.902412498418907</v>
+        <v>3.720000000000002</v>
       </c>
       <c r="R30" t="n">
-        <v>9.695633270934428</v>
+        <v>9.864000000000004</v>
       </c>
       <c r="S30" t="n">
-        <v>3.398575734602584</v>
+        <v>3.384815920397993</v>
       </c>
       <c r="T30" t="n">
-        <v>1.199307142857144</v>
+        <v>1.236000000000001</v>
       </c>
       <c r="U30" t="n">
-        <v>5.868611172161171</v>
+        <v>5.932</v>
       </c>
       <c r="V30" t="n">
-        <v>1.371204951433308</v>
+        <v>1.381014925373133</v>
       </c>
       <c r="W30" t="n">
-        <v>0.2136666666666663</v>
+        <v>0.2479999999999997</v>
       </c>
       <c r="X30" t="n">
-        <v>2.987388888888891</v>
+        <v>2.976</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2192656716417904</v>
+        <v>0.2296318407960193</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.8667552188552177</v>
+        <v>0.8119999999999997</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>54.66107169375667</v>
+        <v>54.88061691542283</v>
       </c>
       <c r="K31" t="n">
-        <v>37.12627648027353</v>
+        <v>36.45999999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>72.69319570168396</v>
+        <v>72.11200000000002</v>
       </c>
       <c r="M31" t="n">
-        <v>16.93656138355839</v>
+        <v>16.95898507462685</v>
       </c>
       <c r="N31" t="n">
-        <v>10.61077777777778</v>
+        <v>10.5</v>
       </c>
       <c r="O31" t="n">
-        <v>23.1163370232508</v>
+        <v>22.368</v>
       </c>
       <c r="P31" t="n">
-        <v>3.986511221669426</v>
+        <v>3.879999999999994</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.0778</v>
+        <v>1.012</v>
       </c>
       <c r="R31" t="n">
-        <v>8.12133333333334</v>
+        <v>8.155999999999997</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8758679933664998</v>
+        <v>0.859999999999999</v>
       </c>
       <c r="T31" t="n">
-        <v>0.08820000000000001</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.718499999999999</v>
+        <v>2.627999999999998</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1434960988707257</v>
+        <v>0.1468258706467661</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.728714285714285</v>
+        <v>0.7280000000000002</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.01332441292814427</v>
+        <v>0.01546268656716419</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.000466046511627907</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.1702585858585855</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="32">
@@ -3089,58 +3089,58 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>40.8944970006407</v>
+        <v>39.96334328358199</v>
       </c>
       <c r="K32" t="n">
-        <v>25.21887760725115</v>
+        <v>24.81599999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>56.09383765123766</v>
+        <v>54.70000000000001</v>
       </c>
       <c r="M32" t="n">
-        <v>28.7066014984178</v>
+        <v>28.34630845771128</v>
       </c>
       <c r="N32" t="n">
-        <v>21.95416666666668</v>
+        <v>21.608</v>
       </c>
       <c r="O32" t="n">
-        <v>36.06612890697993</v>
+        <v>35.328</v>
       </c>
       <c r="P32" t="n">
-        <v>4.439906830924722</v>
+        <v>4.380815920397992</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.515444444444446</v>
+        <v>1.492</v>
       </c>
       <c r="R32" t="n">
-        <v>9.014333333333337</v>
+        <v>8.972000000000001</v>
       </c>
       <c r="S32" t="n">
-        <v>0.6185486614546304</v>
+        <v>0.5998208955223868</v>
       </c>
       <c r="T32" t="n">
-        <v>0.01615</v>
+        <v>0.004</v>
       </c>
       <c r="U32" t="n">
-        <v>1.972778571428571</v>
+        <v>1.98</v>
       </c>
       <c r="V32" t="n">
-        <v>0.05901054264972167</v>
+        <v>0.06409950248756208</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4393384004883999</v>
+        <v>0.4399999999999998</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.006563844571680385</v>
+        <v>0.006109452736318402</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0008269230769230769</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.1231396791718772</v>
+        <v>0.1280000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>33.81880740043937</v>
+        <v>34.06111442786059</v>
       </c>
       <c r="H33" t="n">
-        <v>18.9040492063492</v>
+        <v>19.20400000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>49.61758333333329</v>
+        <v>49.76399999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>32.79710369443515</v>
+        <v>32.55550248756204</v>
       </c>
       <c r="K33" t="n">
-        <v>25.17939859155865</v>
+        <v>26.32</v>
       </c>
       <c r="L33" t="n">
-        <v>38.91931779948371</v>
+        <v>38.804</v>
       </c>
       <c r="M33" t="n">
-        <v>8.280901683501678</v>
+        <v>8.295701492537308</v>
       </c>
       <c r="N33" t="n">
-        <v>3.39109824989825</v>
+        <v>3.520000000000002</v>
       </c>
       <c r="O33" t="n">
-        <v>13.62404126984126</v>
+        <v>13.59600000000001</v>
       </c>
       <c r="P33" t="n">
-        <v>1.753519308812764</v>
+        <v>1.877930348258705</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1489335053485994</v>
+        <v>0.2399999999999998</v>
       </c>
       <c r="R33" t="n">
-        <v>4.44678333333334</v>
+        <v>4.635999999999997</v>
       </c>
       <c r="S33" t="n">
-        <v>0.3857971570717827</v>
+        <v>0.4328557213930336</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.46737393162393</v>
+        <v>1.615999999999999</v>
       </c>
       <c r="V33" t="n">
-        <v>0.06314837169301603</v>
+        <v>0.08405970149253711</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.4389074441897967</v>
+        <v>0.4719999999999997</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.002689457798212858</v>
+        <v>0.005472636815920397</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>37.82750248756215</v>
+        <v>37.9773532338308</v>
       </c>
       <c r="E34" t="n">
-        <v>22.56800000000002</v>
+        <v>23.14400000000002</v>
       </c>
       <c r="F34" t="n">
-        <v>55.81400000000008</v>
+        <v>55.88799999999998</v>
       </c>
       <c r="G34" t="n">
-        <v>21.97606055437096</v>
+        <v>22.06620895522385</v>
       </c>
       <c r="H34" t="n">
-        <v>17.36381428571427</v>
+        <v>17.52399999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>26.52154444444443</v>
+        <v>26.852</v>
       </c>
       <c r="J34" t="n">
-        <v>10.72236569332792</v>
+        <v>10.36272636815921</v>
       </c>
       <c r="K34" t="n">
-        <v>7.403391769903075</v>
+        <v>6.095999999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>14.08018838629894</v>
+        <v>14.244</v>
       </c>
       <c r="M34" t="n">
-        <v>5.085106456836339</v>
+        <v>4.684179104477602</v>
       </c>
       <c r="N34" t="n">
-        <v>2.008293530784835</v>
+        <v>1.819999999999999</v>
       </c>
       <c r="O34" t="n">
-        <v>9.017588983536815</v>
+        <v>8.108000000000002</v>
       </c>
       <c r="P34" t="n">
-        <v>2.022687506909892</v>
+        <v>2.041492537313431</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.3465519961519963</v>
+        <v>0.3559999999999999</v>
       </c>
       <c r="R34" t="n">
-        <v>4.332797619047614</v>
+        <v>4.427999999999997</v>
       </c>
       <c r="S34" t="n">
-        <v>0.876620611229566</v>
+        <v>0.9029452736318407</v>
       </c>
       <c r="T34" t="n">
-        <v>0.00492912087912088</v>
+        <v>0.048</v>
       </c>
       <c r="U34" t="n">
-        <v>2.357887301587302</v>
+        <v>2.400000000000001</v>
       </c>
       <c r="V34" t="n">
-        <v>0.2913184480527755</v>
+        <v>0.3241592039800983</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.966109523809523</v>
+        <v>1.008</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0451956882255389</v>
+        <v>0.04823880597014919</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.2421555555555553</v>
+        <v>0.2479999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3329,67 +3329,67 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>20.85709877596136</v>
+        <v>21.56041791044767</v>
       </c>
       <c r="H35" t="n">
-        <v>10.9381722943723</v>
+        <v>11.132</v>
       </c>
       <c r="I35" t="n">
-        <v>32.78612539682538</v>
+        <v>33.76000000000002</v>
       </c>
       <c r="J35" t="n">
-        <v>16.7286046307838</v>
+        <v>16.73221890547263</v>
       </c>
       <c r="K35" t="n">
-        <v>10.54327041847042</v>
+        <v>10.78399999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>22.67178950098998</v>
+        <v>22.724</v>
       </c>
       <c r="M35" t="n">
-        <v>10.95794372890093</v>
+        <v>11.29277611940297</v>
       </c>
       <c r="N35" t="n">
-        <v>7.752308577664074</v>
+        <v>8.003999999999998</v>
       </c>
       <c r="O35" t="n">
-        <v>14.21091903252278</v>
+        <v>14.192</v>
       </c>
       <c r="P35" t="n">
-        <v>7.045725925844455</v>
+        <v>7.315044776119394</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.538724835537128</v>
+        <v>4.820000000000001</v>
       </c>
       <c r="R35" t="n">
-        <v>9.691466604267763</v>
+        <v>9.972000000000001</v>
       </c>
       <c r="S35" t="n">
-        <v>4.503861736602272</v>
+        <v>4.435502487562184</v>
       </c>
       <c r="T35" t="n">
-        <v>2.568561682435213</v>
+        <v>2.415999999999999</v>
       </c>
       <c r="U35" t="n">
-        <v>6.569999877899876</v>
+        <v>6.640000000000004</v>
       </c>
       <c r="V35" t="n">
-        <v>2.183793019031814</v>
+        <v>2.121671641791034</v>
       </c>
       <c r="W35" t="n">
-        <v>0.753725541125541</v>
+        <v>0.7040000000000002</v>
       </c>
       <c r="X35" t="n">
-        <v>3.812983021794917</v>
+        <v>3.700000000000002</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4128168088130764</v>
+        <v>0.3966766169154222</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.001619204564876343</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.013</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>22.14571592282779</v>
+        <v>21.31277611940293</v>
       </c>
       <c r="K36" t="n">
-        <v>11.70113381433381</v>
+        <v>11.52799999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>35.66479183855361</v>
+        <v>34.56000000000003</v>
       </c>
       <c r="M36" t="n">
-        <v>30.39239243353299</v>
+        <v>30.28443781094515</v>
       </c>
       <c r="N36" t="n">
-        <v>22.37294747474744</v>
+        <v>22.11600000000002</v>
       </c>
       <c r="O36" t="n">
-        <v>38.12793103491735</v>
+        <v>37.99999999999999</v>
       </c>
       <c r="P36" t="n">
-        <v>14.72827432308372</v>
+        <v>14.70013930348259</v>
       </c>
       <c r="Q36" t="n">
-        <v>10.49825859325859</v>
+        <v>10.57200000000001</v>
       </c>
       <c r="R36" t="n">
-        <v>18.41616830734625</v>
+        <v>18.58400000000001</v>
       </c>
       <c r="S36" t="n">
-        <v>6.066217247097833</v>
+        <v>6.106925373134317</v>
       </c>
       <c r="T36" t="n">
-        <v>2.52885714285714</v>
+        <v>2.579999999999998</v>
       </c>
       <c r="U36" t="n">
-        <v>9.469498599439785</v>
+        <v>9.343999999999996</v>
       </c>
       <c r="V36" t="n">
-        <v>2.002741293532323</v>
+        <v>2.000179104477597</v>
       </c>
       <c r="W36" t="n">
-        <v>0.2539999999999995</v>
+        <v>0.2599999999999998</v>
       </c>
       <c r="X36" t="n">
-        <v>3.998533333333333</v>
+        <v>3.988</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.2798673300165832</v>
+        <v>0.2811741293532332</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.0008269230769230769</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.9088619047619046</v>
+        <v>0.8799999999999996</v>
       </c>
     </row>
     <row r="37">
@@ -3486,76 +3486,76 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>7.583348258706464</v>
+        <v>8.615243781094515</v>
       </c>
       <c r="E37" t="n">
-        <v>3.5612</v>
+        <v>3.903999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>12.61433333333335</v>
+        <v>14.04</v>
       </c>
       <c r="G37" t="n">
-        <v>12.88996313669746</v>
+        <v>13.09998009950248</v>
       </c>
       <c r="H37" t="n">
-        <v>6.646669047619051</v>
+        <v>7.348000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>19.29436190476191</v>
+        <v>19.604</v>
       </c>
       <c r="J37" t="n">
-        <v>10.78485385117272</v>
+        <v>10.55134328358208</v>
       </c>
       <c r="K37" t="n">
-        <v>6.433054771459472</v>
+        <v>6.472000000000001</v>
       </c>
       <c r="L37" t="n">
-        <v>15.43473165100294</v>
+        <v>14.788</v>
       </c>
       <c r="M37" t="n">
-        <v>8.298955135121334</v>
+        <v>7.867203980099495</v>
       </c>
       <c r="N37" t="n">
-        <v>5.45752638780936</v>
+        <v>5.111999999999997</v>
       </c>
       <c r="O37" t="n">
-        <v>11.07466159617358</v>
+        <v>10.57600000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>5.714453291206398</v>
+        <v>5.752278606965162</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.616860106697716</v>
+        <v>3.591999999999999</v>
       </c>
       <c r="R37" t="n">
-        <v>8.233062698266647</v>
+        <v>8.139999999999995</v>
       </c>
       <c r="S37" t="n">
-        <v>3.803789874580905</v>
+        <v>3.927184079601975</v>
       </c>
       <c r="T37" t="n">
-        <v>2.029180952380952</v>
+        <v>2.216</v>
       </c>
       <c r="U37" t="n">
-        <v>5.595993372459025</v>
+        <v>5.732000000000003</v>
       </c>
       <c r="V37" t="n">
-        <v>2.124752203269363</v>
+        <v>2.150407960199002</v>
       </c>
       <c r="W37" t="n">
-        <v>0.9214660894660891</v>
+        <v>0.9319999999999997</v>
       </c>
       <c r="X37" t="n">
-        <v>3.452299522347277</v>
+        <v>3.503999999999999</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.456099672273552</v>
+        <v>0.4259701492537304</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.002292536338208117</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>1.108286272986273</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="38">
@@ -3569,70 +3569,70 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>34.39893532338287</v>
+        <v>34.42169154228836</v>
       </c>
       <c r="E38" t="n">
-        <v>18.98400000000002</v>
+        <v>18.98000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>49.60053333333339</v>
+        <v>49.54799999999997</v>
       </c>
       <c r="G38" t="n">
-        <v>32.96504289402896</v>
+        <v>32.55391044776108</v>
       </c>
       <c r="H38" t="n">
-        <v>25.6168667869712</v>
+        <v>26.30400000000002</v>
       </c>
       <c r="I38" t="n">
-        <v>39.07117817199141</v>
+        <v>38.96000000000002</v>
       </c>
       <c r="J38" t="n">
-        <v>8.274606162310146</v>
+        <v>8.195124378109449</v>
       </c>
       <c r="K38" t="n">
-        <v>3.622511111111109</v>
+        <v>3.268</v>
       </c>
       <c r="L38" t="n">
-        <v>14.01442380952381</v>
+        <v>13.87200000000001</v>
       </c>
       <c r="M38" t="n">
-        <v>1.871480523511865</v>
+        <v>1.805233830845769</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2452446643770172</v>
+        <v>0.2199999999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>4.94504761904762</v>
+        <v>4.831999999999998</v>
       </c>
       <c r="P38" t="n">
-        <v>0.4111260910915132</v>
+        <v>0.435860696517412</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.00526512928022362</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.680636111111111</v>
+        <v>1.655999999999999</v>
       </c>
       <c r="S38" t="n">
-        <v>0.08839841880792386</v>
+        <v>0.08925373134328357</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4643587985114301</v>
+        <v>0.4719999999999999</v>
       </c>
       <c r="V38" t="n">
-        <v>0.01857398472341287</v>
+        <v>0.01454726368159203</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.2241466494290021</v>
+        <v>0.2079999999999999</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0009224219626587806</v>
+        <v>9.950248756218879e-05</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -3652,76 +3652,76 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>28.85108457711436</v>
+        <v>30.34310447761191</v>
       </c>
       <c r="E39" t="n">
-        <v>18.00999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="F39" t="n">
-        <v>43.17733333333338</v>
+        <v>44.87599999999998</v>
       </c>
       <c r="G39" t="n">
-        <v>21.53030792071383</v>
+        <v>20.51924378109441</v>
       </c>
       <c r="H39" t="n">
-        <v>14.97216666666666</v>
+        <v>15.40799999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>25.87099126984127</v>
+        <v>25.20400000000002</v>
       </c>
       <c r="J39" t="n">
-        <v>10.7578773626978</v>
+        <v>11.89613930348257</v>
       </c>
       <c r="K39" t="n">
-        <v>8.000775734087041</v>
+        <v>9.011999999999993</v>
       </c>
       <c r="L39" t="n">
-        <v>14.05435505296561</v>
+        <v>15.40799999999999</v>
       </c>
       <c r="M39" t="n">
-        <v>7.225829335416369</v>
+        <v>6.601830845771135</v>
       </c>
       <c r="N39" t="n">
-        <v>4.764620557461864</v>
+        <v>3.603999999999998</v>
       </c>
       <c r="O39" t="n">
-        <v>9.735206875775296</v>
+        <v>9.772000000000006</v>
       </c>
       <c r="P39" t="n">
-        <v>3.871203574148511</v>
+        <v>3.485233830845761</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.448175686840394</v>
+        <v>1.136</v>
       </c>
       <c r="R39" t="n">
-        <v>6.806664524381706</v>
+        <v>6.332000000000001</v>
       </c>
       <c r="S39" t="n">
-        <v>1.857495380241647</v>
+        <v>1.755741293532339</v>
       </c>
       <c r="T39" t="n">
-        <v>0.5585541125541116</v>
+        <v>0.4239999999999998</v>
       </c>
       <c r="U39" t="n">
-        <v>3.853652380952385</v>
+        <v>3.615999999999998</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8343001658374776</v>
+        <v>0.7809353233830837</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01573333333333333</v>
+        <v>0.008</v>
       </c>
       <c r="X39" t="n">
-        <v>2.170033333333331</v>
+        <v>2.108000000000001</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1353689883913763</v>
+        <v>0.1240398009950247</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.6039999999999991</v>
+        <v>0.5920000000000004</v>
       </c>
     </row>
     <row r="40">
@@ -3753,58 +3753,58 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>13.63576217567213</v>
+        <v>13.37044776119402</v>
       </c>
       <c r="K40" t="n">
-        <v>6.773497258297257</v>
+        <v>6.592000000000002</v>
       </c>
       <c r="L40" t="n">
-        <v>22.79151406926407</v>
+        <v>22.78</v>
       </c>
       <c r="M40" t="n">
-        <v>11.69565854063017</v>
+        <v>11.93999999999998</v>
       </c>
       <c r="N40" t="n">
-        <v>6.596175661375659</v>
+        <v>6.568000000000001</v>
       </c>
       <c r="O40" t="n">
-        <v>17.20662539682539</v>
+        <v>17.53600000000001</v>
       </c>
       <c r="P40" t="n">
-        <v>8.932710410341114</v>
+        <v>8.906268656716421</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.656037118437114</v>
+        <v>5.756000000000004</v>
       </c>
       <c r="R40" t="n">
-        <v>12.33461843711845</v>
+        <v>12.364</v>
       </c>
       <c r="S40" t="n">
-        <v>6.487763592782196</v>
+        <v>6.336298507462681</v>
       </c>
       <c r="T40" t="n">
-        <v>3.960138389388391</v>
+        <v>4.067999999999998</v>
       </c>
       <c r="U40" t="n">
-        <v>8.865069822721139</v>
+        <v>8.563999999999997</v>
       </c>
       <c r="V40" t="n">
-        <v>3.348583297437768</v>
+        <v>3.43673631840796</v>
       </c>
       <c r="W40" t="n">
-        <v>1.827283333333334</v>
+        <v>1.952</v>
       </c>
       <c r="X40" t="n">
-        <v>5.028590165390165</v>
+        <v>5.079999999999999</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.7251542252661648</v>
+        <v>0.7650348258706465</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.02723101950611825</v>
+        <v>0.012</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.550133611921846</v>
+        <v>1.564</v>
       </c>
     </row>
     <row r="41">
@@ -3845,49 +3845,49 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>39.78484577114415</v>
+        <v>40.00887562189044</v>
       </c>
       <c r="N41" t="n">
-        <v>23.50057142857141</v>
+        <v>23.46000000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>56.83733333333331</v>
+        <v>57.69999999999999</v>
       </c>
       <c r="P41" t="n">
-        <v>20.69337613244226</v>
+        <v>21.10364179104464</v>
       </c>
       <c r="Q41" t="n">
-        <v>16.15847991681521</v>
+        <v>16.85600000000001</v>
       </c>
       <c r="R41" t="n">
-        <v>25.14238457576994</v>
+        <v>25.564</v>
       </c>
       <c r="S41" t="n">
-        <v>9.017812240385362</v>
+        <v>8.907422885572133</v>
       </c>
       <c r="T41" t="n">
-        <v>4.726857142857148</v>
+        <v>4.744000000000002</v>
       </c>
       <c r="U41" t="n">
-        <v>12.81295396825397</v>
+        <v>12.604</v>
       </c>
       <c r="V41" t="n">
-        <v>2.835634328358201</v>
+        <v>2.827562189054718</v>
       </c>
       <c r="W41" t="n">
-        <v>0.7939999999999989</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="X41" t="n">
-        <v>5.278999999999992</v>
+        <v>5.212000000000002</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.3895422885572131</v>
+        <v>0.3842388059701482</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.009415384615384617</v>
+        <v>0.004</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.087008465608466</v>
+        <v>1.052</v>
       </c>
     </row>
     <row r="42">
@@ -3910,67 +3910,67 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>47.66106973860848</v>
+        <v>47.63850746268648</v>
       </c>
       <c r="H42" t="n">
-        <v>30.15061008991008</v>
+        <v>30.02</v>
       </c>
       <c r="I42" t="n">
-        <v>65.46096190476192</v>
+        <v>65.916</v>
       </c>
       <c r="J42" t="n">
-        <v>20.94456700680612</v>
+        <v>20.88017910447752</v>
       </c>
       <c r="K42" t="n">
-        <v>16.22171754808136</v>
+        <v>15.79200000000001</v>
       </c>
       <c r="L42" t="n">
-        <v>25.42637540358941</v>
+        <v>25.70800000000002</v>
       </c>
       <c r="M42" t="n">
-        <v>6.926466658769641</v>
+        <v>7.095701492537304</v>
       </c>
       <c r="N42" t="n">
-        <v>2.932268423950777</v>
+        <v>3.036</v>
       </c>
       <c r="O42" t="n">
-        <v>11.92722185661783</v>
+        <v>11.7</v>
       </c>
       <c r="P42" t="n">
-        <v>2.25172300905285</v>
+        <v>2.297691542288549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4167487993487993</v>
+        <v>0.456</v>
       </c>
       <c r="R42" t="n">
-        <v>5.209268253968252</v>
+        <v>5.268</v>
       </c>
       <c r="S42" t="n">
-        <v>0.6909140961857372</v>
+        <v>0.7231840796019897</v>
       </c>
       <c r="T42" t="n">
-        <v>0.002307692307692308</v>
+        <v>0.004</v>
       </c>
       <c r="U42" t="n">
-        <v>2.336666666666665</v>
+        <v>2.372</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1621291237507654</v>
+        <v>0.1771542288557212</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0.7376849650349652</v>
+        <v>0.7760000000000004</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.01794388339686842</v>
+        <v>0.02081592039800993</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.2003872577313749</v>
+        <v>0.2359999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3993,67 +3993,67 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>29.10469191057692</v>
+        <v>29.14899502487554</v>
       </c>
       <c r="H43" t="n">
-        <v>16.57121904761906</v>
+        <v>16.496</v>
       </c>
       <c r="I43" t="n">
-        <v>43.06154603174601</v>
+        <v>43.788</v>
       </c>
       <c r="J43" t="n">
-        <v>20.6300830736028</v>
+        <v>19.77623880597014</v>
       </c>
       <c r="K43" t="n">
-        <v>14.90850365456746</v>
+        <v>14.224</v>
       </c>
       <c r="L43" t="n">
-        <v>25.33590671672073</v>
+        <v>24.808</v>
       </c>
       <c r="M43" t="n">
-        <v>11.00436795862948</v>
+        <v>11.74694527363184</v>
       </c>
       <c r="N43" t="n">
-        <v>7.763940697396192</v>
+        <v>8.251999999999994</v>
       </c>
       <c r="O43" t="n">
-        <v>14.19985236585611</v>
+        <v>15.07600000000001</v>
       </c>
       <c r="P43" t="n">
-        <v>6.89433473257117</v>
+        <v>6.627343283582087</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.932655999328043</v>
+        <v>3.652000000000002</v>
       </c>
       <c r="R43" t="n">
-        <v>9.675383270934429</v>
+        <v>9.768000000000004</v>
       </c>
       <c r="S43" t="n">
-        <v>3.396784689826465</v>
+        <v>3.344099502487548</v>
       </c>
       <c r="T43" t="n">
-        <v>1.195307142857144</v>
+        <v>1.232000000000001</v>
       </c>
       <c r="U43" t="n">
-        <v>5.868611172161171</v>
+        <v>5.86</v>
       </c>
       <c r="V43" t="n">
-        <v>1.370612911632313</v>
+        <v>1.363920398009949</v>
       </c>
       <c r="W43" t="n">
-        <v>0.2076666666666663</v>
+        <v>0.2239999999999998</v>
       </c>
       <c r="X43" t="n">
-        <v>2.990188888888891</v>
+        <v>2.944</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.2230069651741287</v>
+        <v>0.2315621890547258</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.8997333333333331</v>
+        <v>0.8319999999999996</v>
       </c>
     </row>
     <row r="44">
@@ -4094,49 +4094,49 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>47.92953366500812</v>
+        <v>47.68885572139294</v>
       </c>
       <c r="N44" t="n">
-        <v>30.59288888888883</v>
+        <v>30.60400000000001</v>
       </c>
       <c r="O44" t="n">
-        <v>65.57466666666684</v>
+        <v>65.10799999999996</v>
       </c>
       <c r="P44" t="n">
-        <v>20.33841350774431</v>
+        <v>20.07251741293519</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98192479416008</v>
+        <v>14.80000000000001</v>
       </c>
       <c r="R44" t="n">
-        <v>24.78265754446792</v>
+        <v>24.576</v>
       </c>
       <c r="S44" t="n">
-        <v>6.42507462686566</v>
+        <v>6.472815920397998</v>
       </c>
       <c r="T44" t="n">
-        <v>2.589999999999998</v>
+        <v>2.727999999999998</v>
       </c>
       <c r="U44" t="n">
-        <v>10.86466666666666</v>
+        <v>10.932</v>
       </c>
       <c r="V44" t="n">
-        <v>1.518127694859037</v>
+        <v>1.583303482587064</v>
       </c>
       <c r="W44" t="n">
-        <v>0.2229999999999997</v>
+        <v>0.2759999999999999</v>
       </c>
       <c r="X44" t="n">
-        <v>3.675523809523814</v>
+        <v>3.720000000000002</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.1723223880597017</v>
+        <v>0.1843582089552238</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.7304444444444427</v>
+        <v>0.7480000000000002</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>48.14796019900493</v>
+        <v>48.65098507462683</v>
       </c>
       <c r="E45" t="n">
-        <v>31.05599999999999</v>
+        <v>31.10799999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>65.64133333333335</v>
+        <v>66.35599999999998</v>
       </c>
       <c r="G45" t="n">
-        <v>20.88049466950955</v>
+        <v>20.73804975124375</v>
       </c>
       <c r="H45" t="n">
-        <v>15.66066666666667</v>
+        <v>15.396</v>
       </c>
       <c r="I45" t="n">
-        <v>25.70177698412698</v>
+        <v>25.41599999999998</v>
       </c>
       <c r="J45" t="n">
-        <v>8.155747825090733</v>
+        <v>6.899980099502472</v>
       </c>
       <c r="K45" t="n">
-        <v>3.873617893996841</v>
+        <v>2.691999999999999</v>
       </c>
       <c r="L45" t="n">
-        <v>12.28309069836596</v>
+        <v>11.31600000000001</v>
       </c>
       <c r="M45" t="n">
-        <v>2.649764581852631</v>
+        <v>2.181611940298496</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5131874273874274</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>5.423836352318706</v>
+        <v>4.883999999999999</v>
       </c>
       <c r="P45" t="n">
-        <v>0.8387971135185051</v>
+        <v>0.7313432835820884</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.05193121693121693</v>
+        <v>0.008</v>
       </c>
       <c r="R45" t="n">
-        <v>2.276966666666667</v>
+        <v>2.048000000000001</v>
       </c>
       <c r="S45" t="n">
-        <v>0.2446978441127693</v>
+        <v>0.2330348258706467</v>
       </c>
       <c r="T45" t="n">
-        <v>0.002452136752136753</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.190795360195361</v>
+        <v>1.215999999999999</v>
       </c>
       <c r="V45" t="n">
-        <v>0.05990497476542248</v>
+        <v>0.05144278606965171</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0.4526857142857142</v>
+        <v>0.488</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.005488730589476849</v>
+        <v>0.003482587064676605</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.05801921172509408</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.31737826096713</v>
+        <v>34.09874626865665</v>
       </c>
       <c r="K46" t="n">
-        <v>20.1633741478565</v>
+        <v>20.18400000000001</v>
       </c>
       <c r="L46" t="n">
-        <v>51.09960431790433</v>
+        <v>51.65599999999999</v>
       </c>
       <c r="M46" t="n">
-        <v>32.33427987164364</v>
+        <v>32.53721393034817</v>
       </c>
       <c r="N46" t="n">
-        <v>26.14429903799903</v>
+        <v>26.75199999999998</v>
       </c>
       <c r="O46" t="n">
-        <v>38.22123149720017</v>
+        <v>38.24799999999999</v>
       </c>
       <c r="P46" t="n">
-        <v>7.976739248203426</v>
+        <v>8.057890547263677</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.179114285714288</v>
+        <v>3.116</v>
       </c>
       <c r="R46" t="n">
-        <v>13.58799999999999</v>
+        <v>13.69599999999999</v>
       </c>
       <c r="S46" t="n">
-        <v>1.70431343283582</v>
+        <v>1.71086567164179</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2426333333333329</v>
+        <v>0.204</v>
       </c>
       <c r="U46" t="n">
-        <v>4.248666666666664</v>
+        <v>4.248000000000002</v>
       </c>
       <c r="V46" t="n">
-        <v>0.2901657664060648</v>
+        <v>0.2967761194029851</v>
       </c>
       <c r="W46" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.236000000000001</v>
+        <v>1.220000000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.02025232495531</v>
+        <v>0.01994029850746269</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.002871794871794872</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.2808444444444443</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="47">
@@ -4325,61 +4325,61 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>44.69062155714182</v>
+        <v>44.80847761194014</v>
       </c>
       <c r="H47" t="n">
-        <v>27.14920457875458</v>
+        <v>26.82</v>
       </c>
       <c r="I47" t="n">
-        <v>61.0201992063492</v>
+        <v>61.05200000000003</v>
       </c>
       <c r="J47" t="n">
-        <v>22.57114523414659</v>
+        <v>22.30967164179089</v>
       </c>
       <c r="K47" t="n">
-        <v>14.76394603174604</v>
+        <v>14.988</v>
       </c>
       <c r="L47" t="n">
-        <v>31.57771428571425</v>
+        <v>31.51199999999998</v>
       </c>
       <c r="M47" t="n">
-        <v>2.195719284529718</v>
+        <v>2.191980099502471</v>
       </c>
       <c r="N47" t="n">
-        <v>0.2474666666666666</v>
+        <v>0.2199999999999999</v>
       </c>
       <c r="O47" t="n">
-        <v>5.40695238095237</v>
+        <v>5.472000000000001</v>
       </c>
       <c r="P47" t="n">
-        <v>0.220924844033799</v>
+        <v>0.2175323383084574</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.001155555555555556</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>1.003033333333333</v>
+        <v>1.016</v>
       </c>
       <c r="S47" t="n">
-        <v>0.02946056055608288</v>
+        <v>0.0203781094527363</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0.2597022061272058</v>
+        <v>0.2519999999999998</v>
       </c>
       <c r="V47" t="n">
-        <v>0.002900765657053026</v>
+        <v>0.0002985074626865668</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0.03824188034188035</v>
+        <v>0.004</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0002705714400846778</v>
+        <v>1.99004975124378e-05</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>16.32434825870646</v>
+        <v>16.44294527363183</v>
       </c>
       <c r="E48" t="n">
-        <v>8.654000000000002</v>
+        <v>8.916</v>
       </c>
       <c r="F48" t="n">
-        <v>25.88822222222226</v>
+        <v>26.19599999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>25.37091654139108</v>
+        <v>26.03590049751236</v>
       </c>
       <c r="H48" t="n">
-        <v>16.11734761904762</v>
+        <v>17.17999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>33.25193650793651</v>
+        <v>34.17599999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>14.26947366622875</v>
+        <v>15.57924378109451</v>
       </c>
       <c r="K48" t="n">
-        <v>10.58915722906953</v>
+        <v>11.84</v>
       </c>
       <c r="L48" t="n">
-        <v>18.42798955331734</v>
+        <v>19.38800000000001</v>
       </c>
       <c r="M48" t="n">
-        <v>8.306583854218715</v>
+        <v>8.567323383084576</v>
       </c>
       <c r="N48" t="n">
-        <v>5.981663072707994</v>
+        <v>5.655999999999997</v>
       </c>
       <c r="O48" t="n">
-        <v>11.4109735589022</v>
+        <v>12.09599999999999</v>
       </c>
       <c r="P48" t="n">
-        <v>5.24189283284463</v>
+        <v>4.578049751243772</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.523997837686907</v>
+        <v>2.156000000000001</v>
       </c>
       <c r="R48" t="n">
-        <v>8.071764726063412</v>
+        <v>7.364000000000003</v>
       </c>
       <c r="S48" t="n">
-        <v>2.405318265813774</v>
+        <v>2.266149253731329</v>
       </c>
       <c r="T48" t="n">
-        <v>0.7417541125541119</v>
+        <v>0.6800000000000002</v>
       </c>
       <c r="U48" t="n">
-        <v>4.38606666666667</v>
+        <v>4.327999999999999</v>
       </c>
       <c r="V48" t="n">
-        <v>0.9842414593698166</v>
+        <v>0.903800995024875</v>
       </c>
       <c r="W48" t="n">
-        <v>0.07973333333333338</v>
+        <v>0.028</v>
       </c>
       <c r="X48" t="n">
-        <v>2.175833333333331</v>
+        <v>2.084000000000002</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.169803814262023</v>
+        <v>0.1650149253731343</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.6191957671957662</v>
+        <v>0.5720000000000003</v>
       </c>
     </row>
     <row r="49">
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>7.086567859117099</v>
+        <v>7.414487562189042</v>
       </c>
       <c r="K49" t="n">
-        <v>3.130367821067817</v>
+        <v>3.343999999999999</v>
       </c>
       <c r="L49" t="n">
-        <v>12.7992894993895</v>
+        <v>13.56399999999999</v>
       </c>
       <c r="M49" t="n">
-        <v>12.90883383084576</v>
+        <v>13.02382089552237</v>
       </c>
       <c r="N49" t="n">
-        <v>6.847562962962955</v>
+        <v>6.924000000000004</v>
       </c>
       <c r="O49" t="n">
-        <v>18.98462222222223</v>
+        <v>19.08</v>
       </c>
       <c r="P49" t="n">
-        <v>10.11743749880874</v>
+        <v>10.16483582089552</v>
       </c>
       <c r="Q49" t="n">
-        <v>5.687624723424714</v>
+        <v>5.608000000000001</v>
       </c>
       <c r="R49" t="n">
-        <v>14.46592063492063</v>
+        <v>14.53200000000001</v>
       </c>
       <c r="S49" t="n">
-        <v>7.202450161888962</v>
+        <v>7.170706467661691</v>
       </c>
       <c r="T49" t="n">
-        <v>4.631259523809528</v>
+        <v>4.680000000000003</v>
       </c>
       <c r="U49" t="n">
-        <v>9.99632716662423</v>
+        <v>9.676000000000009</v>
       </c>
       <c r="V49" t="n">
-        <v>3.897851465826784</v>
+        <v>3.876159203980089</v>
       </c>
       <c r="W49" t="n">
-        <v>2.470516666666665</v>
+        <v>2.328000000000002</v>
       </c>
       <c r="X49" t="n">
-        <v>5.696305635051227</v>
+        <v>5.611999999999998</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.8459265196384596</v>
+        <v>0.8703084577114422</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.09329764098471578</v>
+        <v>0.172</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.668416246607422</v>
+        <v>1.759999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -4565,76 +4565,76 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>7.915767827529025</v>
+        <v>8.491781094527351</v>
       </c>
       <c r="E50" t="n">
-        <v>3.766</v>
+        <v>3.919999999999998</v>
       </c>
       <c r="F50" t="n">
-        <v>13.33333333333335</v>
+        <v>14.044</v>
       </c>
       <c r="G50" t="n">
-        <v>12.91985810629392</v>
+        <v>13.05285572139302</v>
       </c>
       <c r="H50" t="n">
-        <v>7.027171428571434</v>
+        <v>7.508000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>19.20289761904763</v>
+        <v>19.46000000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>10.85543830983181</v>
+        <v>10.53231840796018</v>
       </c>
       <c r="K50" t="n">
-        <v>6.429691135095837</v>
+        <v>6.420000000000001</v>
       </c>
       <c r="L50" t="n">
-        <v>15.43473165100294</v>
+        <v>14.78</v>
       </c>
       <c r="M50" t="n">
-        <v>8.301342290254759</v>
+        <v>7.860298507462679</v>
       </c>
       <c r="N50" t="n">
-        <v>5.481955680738653</v>
+        <v>5.099999999999999</v>
       </c>
       <c r="O50" t="n">
-        <v>11.05095604061802</v>
+        <v>10.528</v>
       </c>
       <c r="P50" t="n">
-        <v>5.730750311396453</v>
+        <v>5.751900497512428</v>
       </c>
       <c r="Q50" t="n">
-        <v>3.619526773364383</v>
+        <v>3.623999999999999</v>
       </c>
       <c r="R50" t="n">
-        <v>8.301373809377758</v>
+        <v>8.135999999999996</v>
       </c>
       <c r="S50" t="n">
-        <v>3.832775723116007</v>
+        <v>3.90624875621889</v>
       </c>
       <c r="T50" t="n">
-        <v>1.919351398601397</v>
+        <v>2.176000000000001</v>
       </c>
       <c r="U50" t="n">
-        <v>5.576026705792359</v>
+        <v>5.692</v>
       </c>
       <c r="V50" t="n">
-        <v>2.137119864960905</v>
+        <v>2.154805970149252</v>
       </c>
       <c r="W50" t="n">
-        <v>0.9391994227994225</v>
+        <v>0.9359999999999998</v>
       </c>
       <c r="X50" t="n">
-        <v>3.426860489158244</v>
+        <v>3.519999999999998</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.4471271302219055</v>
+        <v>0.4254925373134317</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.002292536338208117</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.11577744107744</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="51">
@@ -4675,49 +4675,49 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>8.553895522388032</v>
+        <v>8.976995024875613</v>
       </c>
       <c r="N51" t="n">
-        <v>4.133772582972577</v>
+        <v>4.164000000000001</v>
       </c>
       <c r="O51" t="n">
-        <v>13.87591111111113</v>
+        <v>14.74799999999999</v>
       </c>
       <c r="P51" t="n">
-        <v>7.686242122719724</v>
+        <v>7.926527363184075</v>
       </c>
       <c r="Q51" t="n">
-        <v>3.798899470899475</v>
+        <v>3.863999999999998</v>
       </c>
       <c r="R51" t="n">
-        <v>12.38340000000001</v>
+        <v>12.604</v>
       </c>
       <c r="S51" t="n">
-        <v>5.91054726368158</v>
+        <v>6.043482587064663</v>
       </c>
       <c r="T51" t="n">
-        <v>3.420000000000001</v>
+        <v>3.607999999999998</v>
       </c>
       <c r="U51" t="n">
-        <v>8.890000000000009</v>
+        <v>9.016000000000002</v>
       </c>
       <c r="V51" t="n">
-        <v>3.381567164179096</v>
+        <v>3.459243781094516</v>
       </c>
       <c r="W51" t="n">
-        <v>1.517600000000001</v>
+        <v>1.587999999999999</v>
       </c>
       <c r="X51" t="n">
-        <v>5.454666666666659</v>
+        <v>5.528000000000002</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.7795223880596999</v>
+        <v>0.7958606965174121</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.1456463689471564</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.691594708994708</v>
+        <v>1.695999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -4758,49 +4758,49 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>55.66785735607668</v>
+        <v>55.70837810945263</v>
       </c>
       <c r="N52" t="n">
-        <v>37.9082539682539</v>
+        <v>37.93200000000002</v>
       </c>
       <c r="O52" t="n">
-        <v>73.43756031746035</v>
+        <v>73.33599999999998</v>
       </c>
       <c r="P52" t="n">
-        <v>16.2686271973466</v>
+        <v>16.19992039800994</v>
       </c>
       <c r="Q52" t="n">
-        <v>9.73588888888888</v>
+        <v>9.780000000000005</v>
       </c>
       <c r="R52" t="n">
-        <v>22.58471204481792</v>
+        <v>22.62800000000001</v>
       </c>
       <c r="S52" t="n">
-        <v>3.463466003316737</v>
+        <v>3.461691542288544</v>
       </c>
       <c r="T52" t="n">
-        <v>0.789333333333332</v>
+        <v>0.7879999999999998</v>
       </c>
       <c r="U52" t="n">
-        <v>7.539999999999992</v>
+        <v>7.560000000000002</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6201808576166782</v>
+        <v>0.6269253731343278</v>
       </c>
       <c r="W52" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>2.222666666666669</v>
+        <v>2.240000000000001</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.04270175313906639</v>
+        <v>0.04296517412935302</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.2011640991962969</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>28.44354477611936</v>
+        <v>29.45492537313432</v>
       </c>
       <c r="E53" t="n">
-        <v>16.69199999999999</v>
+        <v>16.73999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>42.57866666666662</v>
+        <v>44.28</v>
       </c>
       <c r="G53" t="n">
-        <v>21.51474936428955</v>
+        <v>20.53098507462671</v>
       </c>
       <c r="H53" t="n">
-        <v>15.46884761904762</v>
+        <v>15.05599999999999</v>
       </c>
       <c r="I53" t="n">
-        <v>26.14963888888889</v>
+        <v>25.48400000000001</v>
       </c>
       <c r="J53" t="n">
-        <v>10.87190862154398</v>
+        <v>12.06857711442786</v>
       </c>
       <c r="K53" t="n">
-        <v>8.151739370450674</v>
+        <v>9.143999999999993</v>
       </c>
       <c r="L53" t="n">
-        <v>14.13899007970358</v>
+        <v>15.75599999999999</v>
       </c>
       <c r="M53" t="n">
-        <v>7.21822004851753</v>
+        <v>6.676238805970137</v>
       </c>
       <c r="N53" t="n">
-        <v>4.794969042310348</v>
+        <v>3.712000000000001</v>
       </c>
       <c r="O53" t="n">
-        <v>9.788693317111736</v>
+        <v>10.02</v>
       </c>
       <c r="P53" t="n">
-        <v>3.947617909877272</v>
+        <v>3.604218905472625</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.60332720199191</v>
+        <v>1.303999999999999</v>
       </c>
       <c r="R53" t="n">
-        <v>6.879408968826152</v>
+        <v>6.448</v>
       </c>
       <c r="S53" t="n">
-        <v>1.851589907604831</v>
+        <v>1.827960199004974</v>
       </c>
       <c r="T53" t="n">
-        <v>0.5145541125541118</v>
+        <v>0.4239999999999998</v>
       </c>
       <c r="U53" t="n">
-        <v>3.8959</v>
+        <v>3.708000000000001</v>
       </c>
       <c r="V53" t="n">
-        <v>0.861176119402984</v>
+        <v>0.7792437810945265</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06840000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="X53" t="n">
-        <v>2.135533333333331</v>
+        <v>2.044</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1384660033167493</v>
+        <v>0.1291940298507461</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.6273333333333323</v>
+        <v>0.6000000000000004</v>
       </c>
     </row>
     <row r="54">
@@ -4906,67 +4906,67 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>8.366141841059251</v>
+        <v>8.222626865671639</v>
       </c>
       <c r="H54" t="n">
-        <v>4.124769047619049</v>
+        <v>3.884</v>
       </c>
       <c r="I54" t="n">
-        <v>14.43233333333334</v>
+        <v>14.476</v>
       </c>
       <c r="J54" t="n">
-        <v>7.737966011213766</v>
+        <v>7.646407960198998</v>
       </c>
       <c r="K54" t="n">
-        <v>3.996726258055671</v>
+        <v>3.923999999999999</v>
       </c>
       <c r="L54" t="n">
-        <v>12.54361825396826</v>
+        <v>12.33599999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>6.428663652289925</v>
+        <v>6.366905472636812</v>
       </c>
       <c r="N54" t="n">
-        <v>3.377526203426199</v>
+        <v>3.340000000000001</v>
       </c>
       <c r="O54" t="n">
-        <v>9.86119259259257</v>
+        <v>9.868000000000007</v>
       </c>
       <c r="P54" t="n">
-        <v>5.092183421516745</v>
+        <v>5.094447761194015</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.657352932252933</v>
+        <v>2.508</v>
       </c>
       <c r="R54" t="n">
-        <v>7.839521262071261</v>
+        <v>7.851999999999999</v>
       </c>
       <c r="S54" t="n">
-        <v>3.870547190454642</v>
+        <v>3.800079601990041</v>
       </c>
       <c r="T54" t="n">
-        <v>2.004644733044733</v>
+        <v>1.883999999999999</v>
       </c>
       <c r="U54" t="n">
-        <v>5.934130419580422</v>
+        <v>5.928000000000002</v>
       </c>
       <c r="V54" t="n">
-        <v>2.265773618020995</v>
+        <v>2.199363184079592</v>
       </c>
       <c r="W54" t="n">
-        <v>1.009062423687424</v>
+        <v>1.008</v>
       </c>
       <c r="X54" t="n">
-        <v>3.772851464463358</v>
+        <v>3.800000000000002</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.5243156469014668</v>
+        <v>0.5253134328358194</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.002292536338208117</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>1.201581000480999</v>
+        <v>1.208000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -4989,67 +4989,67 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>13.39389569612255</v>
+        <v>13.00360199004975</v>
       </c>
       <c r="H55" t="n">
-        <v>6.458869047619048</v>
+        <v>6.332000000000004</v>
       </c>
       <c r="I55" t="n">
-        <v>22.16560000000001</v>
+        <v>21.76399999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>11.40489068941008</v>
+        <v>11.8324975124378</v>
       </c>
       <c r="K55" t="n">
-        <v>6.582652290628767</v>
+        <v>6.596000000000001</v>
       </c>
       <c r="L55" t="n">
-        <v>17.20181428571426</v>
+        <v>17.61200000000001</v>
       </c>
       <c r="M55" t="n">
-        <v>9.59225991038514</v>
+        <v>9.093293532338297</v>
       </c>
       <c r="N55" t="n">
-        <v>5.931967237132434</v>
+        <v>5.347999999999996</v>
       </c>
       <c r="O55" t="n">
-        <v>13.49626766326956</v>
+        <v>13.112</v>
       </c>
       <c r="P55" t="n">
-        <v>6.95401427510345</v>
+        <v>6.685313432835819</v>
       </c>
       <c r="Q55" t="n">
-        <v>4.40860530191171</v>
+        <v>4.231999999999998</v>
       </c>
       <c r="R55" t="n">
-        <v>9.233234867291289</v>
+        <v>9.020000000000005</v>
       </c>
       <c r="S55" t="n">
-        <v>4.500032430032666</v>
+        <v>4.645990049751231</v>
       </c>
       <c r="T55" t="n">
-        <v>2.735633904657435</v>
+        <v>2.835999999999999</v>
       </c>
       <c r="U55" t="n">
-        <v>6.543823687423687</v>
+        <v>6.820000000000004</v>
       </c>
       <c r="V55" t="n">
-        <v>2.470845315091196</v>
+        <v>2.545910447761178</v>
       </c>
       <c r="W55" t="n">
-        <v>1.155585317460319</v>
+        <v>1.212000000000001</v>
       </c>
       <c r="X55" t="n">
-        <v>3.897871044882939</v>
+        <v>4.02</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.5299083529240238</v>
+        <v>0.5407164179104474</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.002292536338208117</v>
+        <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.199600943500942</v>
+        <v>1.224000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -5081,58 +5081,58 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>54.67773504367375</v>
+        <v>55.30366169154217</v>
       </c>
       <c r="K56" t="n">
-        <v>37.08938759138464</v>
+        <v>37.71199999999997</v>
       </c>
       <c r="L56" t="n">
-        <v>73.0305290350173</v>
+        <v>73.85599999999999</v>
       </c>
       <c r="M56" t="n">
-        <v>16.90281063728973</v>
+        <v>16.87966169154227</v>
       </c>
       <c r="N56" t="n">
-        <v>10.67691428571428</v>
+        <v>10.64000000000001</v>
       </c>
       <c r="O56" t="n">
-        <v>23.29128728780107</v>
+        <v>23.296</v>
       </c>
       <c r="P56" t="n">
-        <v>3.868304588170251</v>
+        <v>3.882129353233824</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.944</v>
+        <v>0.9719999999999998</v>
       </c>
       <c r="R56" t="n">
-        <v>7.609000000000006</v>
+        <v>7.620000000000001</v>
       </c>
       <c r="S56" t="n">
-        <v>0.8042288557213921</v>
+        <v>0.8120597014925363</v>
       </c>
       <c r="T56" t="n">
-        <v>0.0002833333333333334</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>2.611816666666664</v>
+        <v>2.639999999999998</v>
       </c>
       <c r="V56" t="n">
-        <v>0.1294823343599462</v>
+        <v>0.131323383084577</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0.5870642857142864</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.008548039715950157</v>
+        <v>0.00706467661691541</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.004599379844961241</v>
+        <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.1303696969696967</v>
+        <v>0.1600000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -5164,58 +5164,58 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>40.8944970006407</v>
+        <v>39.96334328358199</v>
       </c>
       <c r="K57" t="n">
-        <v>25.24687760725115</v>
+        <v>24.81599999999999</v>
       </c>
       <c r="L57" t="n">
-        <v>56.09383765123766</v>
+        <v>54.70000000000001</v>
       </c>
       <c r="M57" t="n">
-        <v>28.7066014984178</v>
+        <v>28.34630845771128</v>
       </c>
       <c r="N57" t="n">
-        <v>21.97176666666669</v>
+        <v>21.608</v>
       </c>
       <c r="O57" t="n">
-        <v>36.06746224031326</v>
+        <v>35.328</v>
       </c>
       <c r="P57" t="n">
-        <v>4.435418163152471</v>
+        <v>4.380815920397992</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.511444444444446</v>
+        <v>1.492</v>
       </c>
       <c r="R57" t="n">
-        <v>9.038333333333336</v>
+        <v>8.972000000000001</v>
       </c>
       <c r="S57" t="n">
-        <v>0.6189665719023918</v>
+        <v>0.5998208955223868</v>
       </c>
       <c r="T57" t="n">
-        <v>0.008150000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="U57" t="n">
-        <v>1.979778571428571</v>
+        <v>1.98</v>
       </c>
       <c r="V57" t="n">
-        <v>0.05901054264972167</v>
+        <v>0.06409950248756208</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4347384004884</v>
+        <v>0.4399999999999998</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.006563844571680385</v>
+        <v>0.006109452736318402</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.0008269230769230769</v>
+        <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.1231396791718772</v>
+        <v>0.1280000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -5229,76 +5229,76 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>7.641726368159203</v>
+        <v>8.501154228855709</v>
       </c>
       <c r="E58" t="n">
-        <v>3.365199999999998</v>
+        <v>3.631999999999998</v>
       </c>
       <c r="F58" t="n">
-        <v>12.92366666666667</v>
+        <v>14.13200000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>12.92272046118613</v>
+        <v>13.25194029850746</v>
       </c>
       <c r="H58" t="n">
-        <v>6.575516666666671</v>
+        <v>7.056000000000003</v>
       </c>
       <c r="I58" t="n">
-        <v>19.41802857142857</v>
+        <v>20.22000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>10.78788536029378</v>
+        <v>10.61540298507462</v>
       </c>
       <c r="K58" t="n">
-        <v>6.426673819078519</v>
+        <v>6.412000000000002</v>
       </c>
       <c r="L58" t="n">
-        <v>15.43573165100295</v>
+        <v>14.904</v>
       </c>
       <c r="M58" t="n">
-        <v>8.278615517420366</v>
+        <v>7.93576119402984</v>
       </c>
       <c r="N58" t="n">
-        <v>5.449888858671831</v>
+        <v>5.031999999999997</v>
       </c>
       <c r="O58" t="n">
-        <v>11.07466159617358</v>
+        <v>10.69200000000001</v>
       </c>
       <c r="P58" t="n">
-        <v>5.737103779505643</v>
+        <v>5.786626865671635</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.615418187505797</v>
+        <v>3.531999999999999</v>
       </c>
       <c r="R58" t="n">
-        <v>8.218729364933314</v>
+        <v>8.115999999999994</v>
       </c>
       <c r="S58" t="n">
-        <v>3.798556043735134</v>
+        <v>3.995243781094514</v>
       </c>
       <c r="T58" t="n">
-        <v>2.047264285714286</v>
+        <v>2.34</v>
       </c>
       <c r="U58" t="n">
-        <v>5.606160039125692</v>
+        <v>5.804000000000003</v>
       </c>
       <c r="V58" t="n">
-        <v>2.136861241411983</v>
+        <v>2.139422885572134</v>
       </c>
       <c r="W58" t="n">
-        <v>0.9312994227994226</v>
+        <v>0.9359999999999998</v>
       </c>
       <c r="X58" t="n">
-        <v>3.502569363617119</v>
+        <v>3.647999999999999</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.460862654979072</v>
+        <v>0.4303681592039789</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.001928899974571753</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>1.11988786028786</v>
+        <v>1.096</v>
       </c>
     </row>
     <row r="59">
@@ -5330,58 +5330,58 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>47.83310655776869</v>
+        <v>47.3601393034825</v>
       </c>
       <c r="K59" t="n">
-        <v>30.84173049543048</v>
+        <v>31.29200000000003</v>
       </c>
       <c r="L59" t="n">
-        <v>64.85233418803419</v>
+        <v>64.33199999999995</v>
       </c>
       <c r="M59" t="n">
-        <v>20.92309367949706</v>
+        <v>20.75745273631839</v>
       </c>
       <c r="N59" t="n">
-        <v>15.88553139818558</v>
+        <v>15.608</v>
       </c>
       <c r="O59" t="n">
-        <v>25.48415546893568</v>
+        <v>25.75199999999998</v>
       </c>
       <c r="P59" t="n">
-        <v>6.968736594712975</v>
+        <v>7.043164179104464</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.793368498168504</v>
+        <v>2.787999999999999</v>
       </c>
       <c r="R59" t="n">
-        <v>11.40241031746032</v>
+        <v>11.48</v>
       </c>
       <c r="S59" t="n">
-        <v>2.119569817578766</v>
+        <v>2.140218905472631</v>
       </c>
       <c r="T59" t="n">
-        <v>0.3624190476190471</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="U59" t="n">
-        <v>4.836766666666671</v>
+        <v>4.848000000000003</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5220732800643237</v>
+        <v>0.5263880597014916</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>1.656256709956708</v>
+        <v>1.671999999999999</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.05140328982791661</v>
+        <v>0.05381094527363175</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.000466046511627907</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.3678146692087861</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5.689870646766166</v>
+        <v>6.091562189054722</v>
       </c>
       <c r="E60" t="n">
-        <v>2.300000000000001</v>
+        <v>2.384</v>
       </c>
       <c r="F60" t="n">
-        <v>9.825333333333331</v>
+        <v>10.792</v>
       </c>
       <c r="G60" t="n">
-        <v>8.075641996367363</v>
+        <v>8.090587064676606</v>
       </c>
       <c r="H60" t="n">
-        <v>4.132290476190478</v>
+        <v>4.119999999999999</v>
       </c>
       <c r="I60" t="n">
-        <v>12.90502380952382</v>
+        <v>12.848</v>
       </c>
       <c r="J60" t="n">
-        <v>7.800545218352664</v>
+        <v>6.978208955223874</v>
       </c>
       <c r="K60" t="n">
-        <v>3.891153054353051</v>
+        <v>3.688</v>
       </c>
       <c r="L60" t="n">
-        <v>12.42649360902256</v>
+        <v>10.768</v>
       </c>
       <c r="M60" t="n">
-        <v>6.269398280735</v>
+        <v>5.653233830845765</v>
       </c>
       <c r="N60" t="n">
-        <v>3.13346608946609</v>
+        <v>3.036000000000001</v>
       </c>
       <c r="O60" t="n">
-        <v>9.519518860768862</v>
+        <v>8.771999999999997</v>
       </c>
       <c r="P60" t="n">
-        <v>4.933991068542752</v>
+        <v>4.529393034825858</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.538458939208937</v>
+        <v>2.587999999999999</v>
       </c>
       <c r="R60" t="n">
-        <v>7.732075643654595</v>
+        <v>6.963999999999998</v>
       </c>
       <c r="S60" t="n">
-        <v>3.66565393523004</v>
+        <v>3.34680597014924</v>
       </c>
       <c r="T60" t="n">
-        <v>1.638652047952047</v>
+        <v>1.524</v>
       </c>
       <c r="U60" t="n">
-        <v>5.470710039125692</v>
+        <v>5.196000000000002</v>
       </c>
       <c r="V60" t="n">
-        <v>2.043760510937374</v>
+        <v>1.930069651741292</v>
       </c>
       <c r="W60" t="n">
-        <v>0.8556970418470412</v>
+        <v>0.772</v>
       </c>
       <c r="X60" t="n">
-        <v>3.416870229417985</v>
+        <v>3.347999999999999</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.4635179657269201</v>
+        <v>0.4624875621890536</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.002292536338208117</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.11492453102453</v>
+        <v>1.116000000000001</v>
       </c>
     </row>
     <row r="61">
@@ -5487,61 +5487,61 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>55.44081350127659</v>
+        <v>55.55830845771132</v>
       </c>
       <c r="H61" t="n">
-        <v>36.54570365582131</v>
+        <v>36.95200000000003</v>
       </c>
       <c r="I61" t="n">
-        <v>72.90249206349208</v>
+        <v>72.86799999999998</v>
       </c>
       <c r="J61" t="n">
-        <v>17.14442725355481</v>
+        <v>16.84121393034825</v>
       </c>
       <c r="K61" t="n">
-        <v>10.82072875816992</v>
+        <v>10.74000000000001</v>
       </c>
       <c r="L61" t="n">
-        <v>24.24590077832959</v>
+        <v>22.9</v>
       </c>
       <c r="M61" t="n">
-        <v>3.829619071310108</v>
+        <v>3.836199004975116</v>
       </c>
       <c r="N61" t="n">
-        <v>0.8936017138634783</v>
+        <v>0.9839999999999993</v>
       </c>
       <c r="O61" t="n">
-        <v>7.704454353054351</v>
+        <v>7.739999999999998</v>
       </c>
       <c r="P61" t="n">
-        <v>0.8636790246543179</v>
+        <v>0.8973532338308445</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.0028446164597108</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>2.822887337662337</v>
+        <v>2.811999999999999</v>
       </c>
       <c r="S61" t="n">
-        <v>0.1679555422814653</v>
+        <v>0.185592039800995</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0.9149498297024609</v>
+        <v>0.8839999999999998</v>
       </c>
       <c r="V61" t="n">
-        <v>0.03174426590712683</v>
+        <v>0.03400995024875609</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0.3182360156183681</v>
+        <v>0.34</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.001336077951391165</v>
+        <v>0.0007562189054726367</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>27.72648178512963</v>
+        <v>27.64712437810931</v>
       </c>
       <c r="H62" t="n">
-        <v>14.72631666666666</v>
+        <v>14.572</v>
       </c>
       <c r="I62" t="n">
-        <v>41.86870238095244</v>
+        <v>41.84799999999998</v>
       </c>
       <c r="J62" t="n">
-        <v>32.96603033396477</v>
+        <v>33.3795820895521</v>
       </c>
       <c r="K62" t="n">
-        <v>25.3020975333576</v>
+        <v>25.67600000000001</v>
       </c>
       <c r="L62" t="n">
-        <v>38.93781779948372</v>
+        <v>39.55199999999999</v>
       </c>
       <c r="M62" t="n">
-        <v>12.58573880883443</v>
+        <v>12.21882587064675</v>
       </c>
       <c r="N62" t="n">
-        <v>6.987210457516333</v>
+        <v>7.023999999999997</v>
       </c>
       <c r="O62" t="n">
-        <v>17.92425069992304</v>
+        <v>17.11600000000001</v>
       </c>
       <c r="P62" t="n">
-        <v>3.954601687091229</v>
+        <v>4.002029850746258</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.9613017094017096</v>
+        <v>1.072</v>
       </c>
       <c r="R62" t="n">
-        <v>7.860673809523803</v>
+        <v>7.780000000000004</v>
       </c>
       <c r="S62" t="n">
-        <v>1.138925373134328</v>
+        <v>1.183263681592039</v>
       </c>
       <c r="T62" t="n">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
       <c r="U62" t="n">
-        <v>3.363266666666665</v>
+        <v>3.372000000000002</v>
       </c>
       <c r="V62" t="n">
-        <v>0.2963223880597002</v>
+        <v>0.3026865671641774</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>1.03227619047619</v>
+        <v>1.08</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.03152525467898597</v>
+        <v>0.03381094527363181</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.1990539243980416</v>
+        <v>0.2039999999999999</v>
       </c>
     </row>
     <row r="63">
@@ -5644,76 +5644,76 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>55.9677611940298</v>
+        <v>55.80326368159192</v>
       </c>
       <c r="E63" t="n">
-        <v>39.42799999999997</v>
+        <v>38.96399999999996</v>
       </c>
       <c r="F63" t="n">
-        <v>73.6186666666667</v>
+        <v>73.30799999999998</v>
       </c>
       <c r="G63" t="n">
-        <v>17.20517722498616</v>
+        <v>17.3337910447761</v>
       </c>
       <c r="H63" t="n">
-        <v>10.93699999999999</v>
+        <v>11.212</v>
       </c>
       <c r="I63" t="n">
-        <v>23.59070000000001</v>
+        <v>23.64400000000002</v>
       </c>
       <c r="J63" t="n">
-        <v>4.378294025782577</v>
+        <v>4.171024875621879</v>
       </c>
       <c r="K63" t="n">
-        <v>1.369320634920634</v>
+        <v>1.268</v>
       </c>
       <c r="L63" t="n">
-        <v>8.484252380952375</v>
+        <v>8.216000000000006</v>
       </c>
       <c r="M63" t="n">
-        <v>1.013202031053522</v>
+        <v>0.9877412935323356</v>
       </c>
       <c r="N63" t="n">
-        <v>0.06396722188486892</v>
+        <v>0.028</v>
       </c>
       <c r="O63" t="n">
-        <v>3.099504761904759</v>
+        <v>2.792000000000002</v>
       </c>
       <c r="P63" t="n">
-        <v>0.2672244396013044</v>
+        <v>0.2520398009950247</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.00126512928022362</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0.9824297619047609</v>
+        <v>0.9719999999999993</v>
       </c>
       <c r="S63" t="n">
-        <v>0.07461666093064362</v>
+        <v>0.05769154228855711</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0.4419306415806414</v>
+        <v>0.4519999999999997</v>
       </c>
       <c r="V63" t="n">
-        <v>0.01771529647965</v>
+        <v>0.01142288557213928</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0.1257542124542124</v>
+        <v>0.07600000000000001</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.0005463466078260504</v>
+        <v>0.000656716417910447</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>5.678203980099499</v>
+        <v>6.130407960198999</v>
       </c>
       <c r="E64" t="n">
-        <v>2.380000000000001</v>
+        <v>2.544</v>
       </c>
       <c r="F64" t="n">
-        <v>9.683999999999997</v>
+        <v>10.632</v>
       </c>
       <c r="G64" t="n">
-        <v>8.115417231303793</v>
+        <v>8.151562189054713</v>
       </c>
       <c r="H64" t="n">
-        <v>4.267052380952382</v>
+        <v>4.215999999999998</v>
       </c>
       <c r="I64" t="n">
-        <v>12.97723492063493</v>
+        <v>13.008</v>
       </c>
       <c r="J64" t="n">
-        <v>7.807968103924805</v>
+        <v>7.037592039800987</v>
       </c>
       <c r="K64" t="n">
-        <v>4.010256758056755</v>
+        <v>3.816</v>
       </c>
       <c r="L64" t="n">
-        <v>12.46949360902256</v>
+        <v>10.832</v>
       </c>
       <c r="M64" t="n">
-        <v>6.24048683794893</v>
+        <v>5.685074626865661</v>
       </c>
       <c r="N64" t="n">
-        <v>3.193104266104264</v>
+        <v>3.1</v>
       </c>
       <c r="O64" t="n">
-        <v>9.555126003626006</v>
+        <v>8.739999999999998</v>
       </c>
       <c r="P64" t="n">
-        <v>4.925013693513138</v>
+        <v>4.556776119402976</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.58897017242017</v>
+        <v>2.651999999999999</v>
       </c>
       <c r="R64" t="n">
-        <v>7.719325643654594</v>
+        <v>6.931999999999997</v>
       </c>
       <c r="S64" t="n">
-        <v>3.66565393523004</v>
+        <v>3.349830845771131</v>
       </c>
       <c r="T64" t="n">
-        <v>1.784092091242091</v>
+        <v>1.588</v>
       </c>
       <c r="U64" t="n">
-        <v>5.476210039125691</v>
+        <v>5.164000000000002</v>
       </c>
       <c r="V64" t="n">
-        <v>2.046606992813706</v>
+        <v>1.949014925373133</v>
       </c>
       <c r="W64" t="n">
-        <v>0.849297041847041</v>
+        <v>0.772</v>
       </c>
       <c r="X64" t="n">
-        <v>3.442059262607017</v>
+        <v>3.379999999999999</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.4621078733317528</v>
+        <v>0.4608955223880585</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.002292536338208117</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>1.107435642135642</v>
+        <v>1.116000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -5837,49 +5837,49 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>60.79645504619752</v>
+        <v>60.70585074626859</v>
       </c>
       <c r="N65" t="n">
-        <v>43.39984285714286</v>
+        <v>43.60000000000001</v>
       </c>
       <c r="O65" t="n">
-        <v>75.97748095238094</v>
+        <v>76.63999999999999</v>
       </c>
       <c r="P65" t="n">
-        <v>11.1024516307352</v>
+        <v>11.14079601990048</v>
       </c>
       <c r="Q65" t="n">
-        <v>5.588666666666669</v>
+        <v>5.551999999999998</v>
       </c>
       <c r="R65" t="n">
-        <v>17.43369999999999</v>
+        <v>17.468</v>
       </c>
       <c r="S65" t="n">
-        <v>1.455676616915422</v>
+        <v>1.494029850746268</v>
       </c>
       <c r="T65" t="n">
-        <v>0.06423333333333336</v>
+        <v>0.1240000000000001</v>
       </c>
       <c r="U65" t="n">
-        <v>4.232166666666661</v>
+        <v>4.212000000000001</v>
       </c>
       <c r="V65" t="n">
-        <v>0.1781023967464264</v>
+        <v>0.1837611940298506</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>0.7550698412698399</v>
+        <v>0.772</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.005926408155139491</v>
+        <v>0.006547263681592023</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.08939584522804329</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>21.36765174129352</v>
+        <v>20.98392039800993</v>
       </c>
       <c r="E66" t="n">
-        <v>12.0796</v>
+        <v>11.832</v>
       </c>
       <c r="F66" t="n">
-        <v>33.50688888888882</v>
+        <v>32.38000000000002</v>
       </c>
       <c r="G66" t="n">
-        <v>31.00974251660102</v>
+        <v>30.55383084577103</v>
       </c>
       <c r="H66" t="n">
-        <v>22.89707395480337</v>
+        <v>21.85599999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>38.44526817365642</v>
+        <v>37.93199999999997</v>
       </c>
       <c r="J66" t="n">
-        <v>14.23301473074743</v>
+        <v>15.24495522388059</v>
       </c>
       <c r="K66" t="n">
-        <v>10.14170222111452</v>
+        <v>11.52400000000001</v>
       </c>
       <c r="L66" t="n">
-        <v>18.42798955331734</v>
+        <v>19.24400000000002</v>
       </c>
       <c r="M66" t="n">
-        <v>6.639748884249109</v>
+        <v>6.794746268656707</v>
       </c>
       <c r="N66" t="n">
-        <v>3.363668095479398</v>
+        <v>3.348000000000003</v>
       </c>
       <c r="O66" t="n">
-        <v>10.92483851801716</v>
+        <v>10.54799999999999</v>
       </c>
       <c r="P66" t="n">
-        <v>2.82213814262022</v>
+        <v>2.93659701492536</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7318207311207304</v>
+        <v>0.8319999999999996</v>
       </c>
       <c r="R66" t="n">
-        <v>5.510807142857144</v>
+        <v>5.720000000000004</v>
       </c>
       <c r="S66" t="n">
-        <v>1.190879601990048</v>
+        <v>1.216935323383083</v>
       </c>
       <c r="T66" t="n">
-        <v>0.02336548451548452</v>
+        <v>0.028</v>
       </c>
       <c r="U66" t="n">
-        <v>2.831102380952383</v>
+        <v>2.883999999999999</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3778532028502167</v>
+        <v>0.4131343283582083</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>1.289095238095239</v>
+        <v>1.403999999999999</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.06359438521677326</v>
+        <v>0.07016915422885571</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.3666247863247858</v>
+        <v>0.4039999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -5985,67 +5985,67 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>38.77987322119551</v>
+        <v>38.53950248756215</v>
       </c>
       <c r="H67" t="n">
-        <v>23.40179401154403</v>
+        <v>22.99999999999999</v>
       </c>
       <c r="I67" t="n">
-        <v>55.79720952380951</v>
+        <v>55.58800000000003</v>
       </c>
       <c r="J67" t="n">
-        <v>20.8985970765153</v>
+        <v>21.80053731343278</v>
       </c>
       <c r="K67" t="n">
-        <v>16.66573082369463</v>
+        <v>17.236</v>
       </c>
       <c r="L67" t="n">
-        <v>25.42637540358941</v>
+        <v>26.20799999999998</v>
       </c>
       <c r="M67" t="n">
-        <v>10.61224836804869</v>
+        <v>10.28746268656715</v>
       </c>
       <c r="N67" t="n">
-        <v>6.224948073478784</v>
+        <v>5.924000000000001</v>
       </c>
       <c r="O67" t="n">
-        <v>14.168478251082</v>
+        <v>14.11999999999999</v>
       </c>
       <c r="P67" t="n">
-        <v>4.416861426725093</v>
+        <v>4.468776119402978</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.563462914862914</v>
+        <v>1.624</v>
       </c>
       <c r="R67" t="n">
-        <v>7.780659512417405</v>
+        <v>7.988</v>
       </c>
       <c r="S67" t="n">
-        <v>1.840531461738923</v>
+        <v>1.869014925373132</v>
       </c>
       <c r="T67" t="n">
-        <v>0.3232243589743586</v>
+        <v>0.4039999999999999</v>
       </c>
       <c r="U67" t="n">
-        <v>4.319504761904756</v>
+        <v>4.364000000000001</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5857808418226319</v>
+        <v>0.6199999999999989</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="X67" t="n">
-        <v>1.887666666666667</v>
+        <v>1.935999999999999</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.08249122245913285</v>
+        <v>0.08945273631840786</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.4622490287490285</v>
+        <v>0.5040000000000002</v>
       </c>
     </row>
     <row r="68">
@@ -6068,67 +6068,67 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>7.335357877280264</v>
+        <v>7.796119402985069</v>
       </c>
       <c r="H68" t="n">
-        <v>3.103400000000001</v>
+        <v>3.284000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>14.27099999999998</v>
+        <v>14.72400000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>13.21898601544024</v>
+        <v>13.09701492537312</v>
       </c>
       <c r="K68" t="n">
-        <v>6.880827208303679</v>
+        <v>6.852000000000001</v>
       </c>
       <c r="L68" t="n">
-        <v>20.8633854978355</v>
+        <v>20.38000000000001</v>
       </c>
       <c r="M68" t="n">
-        <v>10.51235567047802</v>
+        <v>10.39808955223879</v>
       </c>
       <c r="N68" t="n">
-        <v>6.012755496355498</v>
+        <v>6.023999999999997</v>
       </c>
       <c r="O68" t="n">
-        <v>15.1992771291866</v>
+        <v>14.85600000000001</v>
       </c>
       <c r="P68" t="n">
-        <v>8.026886548918005</v>
+        <v>7.677572139303481</v>
       </c>
       <c r="Q68" t="n">
-        <v>4.90689870601248</v>
+        <v>4.552000000000002</v>
       </c>
       <c r="R68" t="n">
-        <v>11.19798195329693</v>
+        <v>10.736</v>
       </c>
       <c r="S68" t="n">
-        <v>5.414078786329774</v>
+        <v>5.37269651741292</v>
       </c>
       <c r="T68" t="n">
-        <v>3.271836396609926</v>
+        <v>3.304000000000002</v>
       </c>
       <c r="U68" t="n">
-        <v>7.822352848132258</v>
+        <v>7.788000000000003</v>
       </c>
       <c r="V68" t="n">
-        <v>2.870907209981825</v>
+        <v>2.853611940298491</v>
       </c>
       <c r="W68" t="n">
-        <v>1.44249880952381</v>
+        <v>1.432</v>
       </c>
       <c r="X68" t="n">
-        <v>4.219064408493869</v>
+        <v>4.267999999999998</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.6309439476499168</v>
+        <v>0.6297711442786049</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.002292536338208117</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.431771376771378</v>
+        <v>1.428</v>
       </c>
     </row>
     <row r="69">
@@ -6151,61 +6151,61 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>44.71527306152471</v>
+        <v>45.01114427860693</v>
       </c>
       <c r="H69" t="n">
-        <v>27.43307124542126</v>
+        <v>27.836</v>
       </c>
       <c r="I69" t="n">
-        <v>61.29991904761904</v>
+        <v>61.88799999999996</v>
       </c>
       <c r="J69" t="n">
-        <v>22.49706922530197</v>
+        <v>22.22336318407949</v>
       </c>
       <c r="K69" t="n">
-        <v>14.33990158730159</v>
+        <v>14.284</v>
       </c>
       <c r="L69" t="n">
-        <v>30.71511428571424</v>
+        <v>30.59600000000001</v>
       </c>
       <c r="M69" t="n">
-        <v>2.014699549869698</v>
+        <v>2.003462686567162</v>
       </c>
       <c r="N69" t="n">
-        <v>0.2392333333333331</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="O69" t="n">
-        <v>5.474174603174594</v>
+        <v>5.424000000000002</v>
       </c>
       <c r="P69" t="n">
-        <v>0.2107631847975132</v>
+        <v>0.1998208955223878</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0008058700209643607</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>1.086166666666667</v>
+        <v>1.104000000000001</v>
       </c>
       <c r="S69" t="n">
-        <v>0.02954679604530345</v>
+        <v>0.02266666666666661</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>0.2257073343323341</v>
+        <v>0.2159999999999999</v>
       </c>
       <c r="V69" t="n">
-        <v>0.002594537391123268</v>
+        <v>0.00127363184079602</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0.01152543012543012</v>
+        <v>0.004</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0002787198575856913</v>
+        <v>1.99004975124378e-05</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -6243,58 +6243,58 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>13.62292561772114</v>
+        <v>13.23966169154228</v>
       </c>
       <c r="K70" t="n">
-        <v>6.815338528138525</v>
+        <v>6.956</v>
       </c>
       <c r="L70" t="n">
-        <v>22.56508073593074</v>
+        <v>22.53200000000001</v>
       </c>
       <c r="M70" t="n">
-        <v>11.53774991708125</v>
+        <v>11.86409950248755</v>
       </c>
       <c r="N70" t="n">
-        <v>6.645244444444435</v>
+        <v>6.832000000000003</v>
       </c>
       <c r="O70" t="n">
-        <v>16.75986666666669</v>
+        <v>17.03999999999999</v>
       </c>
       <c r="P70" t="n">
-        <v>8.930494821618064</v>
+        <v>8.949572139303474</v>
       </c>
       <c r="Q70" t="n">
-        <v>5.529379975579979</v>
+        <v>5.475999999999999</v>
       </c>
       <c r="R70" t="n">
-        <v>12.28261843711845</v>
+        <v>12.324</v>
       </c>
       <c r="S70" t="n">
-        <v>6.513997755302927</v>
+        <v>6.33016915422885</v>
       </c>
       <c r="T70" t="n">
-        <v>3.938938389388392</v>
+        <v>3.823999999999998</v>
       </c>
       <c r="U70" t="n">
-        <v>8.868069822721139</v>
+        <v>8.844000000000003</v>
       </c>
       <c r="V70" t="n">
-        <v>3.37044612615134</v>
+        <v>3.37639800995024</v>
       </c>
       <c r="W70" t="n">
-        <v>1.882894444444446</v>
+        <v>2.004</v>
       </c>
       <c r="X70" t="n">
-        <v>5.063487784437785</v>
+        <v>5.104</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.6990042134206307</v>
+        <v>0.7387860696517403</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.02723101950611825</v>
+        <v>0.02</v>
       </c>
       <c r="AA70" t="n">
-        <v>1.552495516683751</v>
+        <v>1.608</v>
       </c>
     </row>
     <row r="71">
@@ -6335,49 +6335,49 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>29.4826849087893</v>
+        <v>29.70071641791034</v>
       </c>
       <c r="N71" t="n">
-        <v>17.23534920634923</v>
+        <v>16.732</v>
       </c>
       <c r="O71" t="n">
-        <v>43.77999999999998</v>
+        <v>44.07200000000001</v>
       </c>
       <c r="P71" t="n">
-        <v>20.00815842097827</v>
+        <v>19.64742288557213</v>
       </c>
       <c r="Q71" t="n">
-        <v>14.06027032227032</v>
+        <v>13.66</v>
       </c>
       <c r="R71" t="n">
-        <v>24.95186515075053</v>
+        <v>24.472</v>
       </c>
       <c r="S71" t="n">
-        <v>10.59497547184711</v>
+        <v>10.69148258706467</v>
       </c>
       <c r="T71" t="n">
-        <v>7.28489194139194</v>
+        <v>7.363999999999995</v>
       </c>
       <c r="U71" t="n">
-        <v>13.74374419942802</v>
+        <v>13.884</v>
       </c>
       <c r="V71" t="n">
-        <v>4.391228192371471</v>
+        <v>4.376895522388052</v>
       </c>
       <c r="W71" t="n">
-        <v>2.324233333333335</v>
+        <v>2.320000000000002</v>
       </c>
       <c r="X71" t="n">
-        <v>6.659634315684314</v>
+        <v>6.636000000000005</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.7216162520729664</v>
+        <v>0.7241393034825856</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.12498381152731</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.593777777777774</v>
+        <v>1.603999999999999</v>
       </c>
     </row>
     <row r="72">
@@ -6409,58 +6409,58 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>29.23758389075439</v>
+        <v>29.65508457711428</v>
       </c>
       <c r="K72" t="n">
-        <v>16.48518154677566</v>
+        <v>16.97999999999999</v>
       </c>
       <c r="L72" t="n">
-        <v>42.95702327476445</v>
+        <v>43.56</v>
       </c>
       <c r="M72" t="n">
-        <v>20.50509132231047</v>
+        <v>20.11667661691537</v>
       </c>
       <c r="N72" t="n">
-        <v>14.93998178157125</v>
+        <v>14.54</v>
       </c>
       <c r="O72" t="n">
-        <v>25.34443449176471</v>
+        <v>25.21599999999999</v>
       </c>
       <c r="P72" t="n">
-        <v>11.16880734155235</v>
+        <v>11.42091542288556</v>
       </c>
       <c r="Q72" t="n">
-        <v>8.02867236097236</v>
+        <v>8.375999999999994</v>
       </c>
       <c r="R72" t="n">
-        <v>14.21266719684422</v>
+        <v>14.27200000000001</v>
       </c>
       <c r="S72" t="n">
-        <v>6.075785627418454</v>
+        <v>5.967124378109443</v>
       </c>
       <c r="T72" t="n">
-        <v>3.350064285714282</v>
+        <v>3.311999999999999</v>
       </c>
       <c r="U72" t="n">
-        <v>8.947532951259268</v>
+        <v>8.872000000000003</v>
       </c>
       <c r="V72" t="n">
-        <v>2.429467661691535</v>
+        <v>2.441353233830838</v>
       </c>
       <c r="W72" t="n">
-        <v>0.8366666666666653</v>
+        <v>0.8279999999999997</v>
       </c>
       <c r="X72" t="n">
-        <v>4.329492063492058</v>
+        <v>4.291999999999998</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.3844902155887218</v>
+        <v>0.3873830845771133</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.001466046511627907</v>
+        <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.046560846560846</v>
+        <v>1.044</v>
       </c>
     </row>
   </sheetData>
